--- a/botafogo_previsao_estadio.xlsx
+++ b/botafogo_previsao_estadio.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9399af9f441dfb25/Documentos/Projeto Futebol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9399af9f441dfb25/Documentos/Projeto Futebol/ia-botafogo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2885" documentId="8_{FF0F605F-F2C5-4D0A-9132-A4D8069F1A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD2992AD-945A-4D0C-AE27-DD1C6AFCE78E}"/>
+  <xr:revisionPtr revIDLastSave="3029" documentId="8_{FF0F605F-F2C5-4D0A-9132-A4D8069F1A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE10D402-AE09-4C33-9F97-11062DD785B9}"/>
   <bookViews>
-    <workbookView xWindow="36225" yWindow="0" windowWidth="21480" windowHeight="15585" xr2:uid="{BDAF93C4-966A-4323-BFDC-13327AEDDB19}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BDAF93C4-966A-4323-BFDC-13327AEDDB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$AC$185</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$AC$187</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1282" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="130">
   <si>
     <t>ano_campeonato</t>
   </si>
@@ -321,9 +321,6 @@
   </si>
   <si>
     <t>semi-final - taça rio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">carioca </t>
   </si>
   <si>
     <t>final - taça rio</t>
@@ -826,11 +823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F969D-DFCA-4A79-8310-530A765857C0}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AC185"/>
+  <dimension ref="A1:AC187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="B160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -1096,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29" hidden="1">
+    <row r="4" spans="1:29">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -1221,7 +1218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:29" hidden="1">
+    <row r="6" spans="1:29">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -1268,7 +1265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:29" hidden="1">
+    <row r="7" spans="1:29">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -1313,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:29" hidden="1">
+    <row r="8" spans="1:29">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -1440,7 +1437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:29" hidden="1">
+    <row r="10" spans="1:29">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -1650,7 +1647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29" hidden="1">
+    <row r="13" spans="1:29">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -1697,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29" hidden="1">
+    <row r="14" spans="1:29">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -1824,7 +1821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" hidden="1">
+    <row r="16" spans="1:29">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -2031,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29" hidden="1">
+    <row r="19" spans="1:29">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -2161,7 +2158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29" hidden="1">
+    <row r="21" spans="1:29">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -2206,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29" hidden="1">
+    <row r="22" spans="1:29">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -2253,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29" hidden="1">
+    <row r="23" spans="1:29">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -2463,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29" hidden="1">
+    <row r="26" spans="1:29">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -2590,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29" hidden="1">
+    <row r="28" spans="1:29">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -2797,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29" hidden="1">
+    <row r="31" spans="1:29">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -2927,7 +2924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" hidden="1">
+    <row r="33" spans="1:29">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -3134,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29" hidden="1">
+    <row r="36" spans="1:29">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -3261,7 +3258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:29" hidden="1">
+    <row r="38" spans="1:29">
       <c r="A38">
         <v>2022</v>
       </c>
@@ -3308,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1">
+    <row r="39" spans="1:29">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -3435,7 +3432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" hidden="1">
+    <row r="41" spans="1:29">
       <c r="A41">
         <v>2022</v>
       </c>
@@ -3642,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" hidden="1">
+    <row r="44" spans="1:29">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -3769,7 +3766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29" hidden="1">
+    <row r="46" spans="1:29">
       <c r="A46">
         <v>2022</v>
       </c>
@@ -3896,7 +3893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29" hidden="1">
+    <row r="48" spans="1:29">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -3937,7 +3934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:29" hidden="1">
+    <row r="49" spans="1:29">
       <c r="A49">
         <v>2023</v>
       </c>
@@ -4020,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29" hidden="1">
+    <row r="50" spans="1:29">
       <c r="A50">
         <v>2023</v>
       </c>
@@ -4061,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:29" hidden="1">
+    <row r="51" spans="1:29">
       <c r="A51">
         <v>2023</v>
       </c>
@@ -4144,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" hidden="1">
+    <row r="52" spans="1:29">
       <c r="A52">
         <v>2023</v>
       </c>
@@ -4184,7 +4181,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:29" hidden="1">
+    <row r="53" spans="1:29">
       <c r="A53">
         <v>2023</v>
       </c>
@@ -4264,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29" hidden="1">
+    <row r="54" spans="1:29">
       <c r="A54">
         <v>2023</v>
       </c>
@@ -4304,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29" hidden="1">
+    <row r="55" spans="1:29">
       <c r="A55">
         <v>2023</v>
       </c>
@@ -4387,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:29" hidden="1">
+    <row r="56" spans="1:29">
       <c r="A56">
         <v>2023</v>
       </c>
@@ -4433,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:29" hidden="1">
+    <row r="57" spans="1:29">
       <c r="A57">
         <v>2023</v>
       </c>
@@ -4473,7 +4470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:29" hidden="1">
+    <row r="58" spans="1:29">
       <c r="A58">
         <v>2023</v>
       </c>
@@ -4553,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:29" hidden="1">
+    <row r="59" spans="1:29">
       <c r="A59">
         <v>2023</v>
       </c>
@@ -4636,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:29" hidden="1">
+    <row r="60" spans="1:29">
       <c r="A60">
         <v>2023</v>
       </c>
@@ -4682,12 +4679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29" hidden="1">
+    <row r="61" spans="1:29">
       <c r="A61">
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>93</v>
@@ -4765,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:29" hidden="1">
+    <row r="62" spans="1:29">
       <c r="A62">
         <v>2023</v>
       </c>
@@ -4773,7 +4770,7 @@
         <v>29</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E62" s="1">
         <v>45018</v>
@@ -4811,15 +4808,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:29" hidden="1">
+    <row r="63" spans="1:29">
       <c r="A63">
         <v>2023</v>
       </c>
       <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E63" s="1">
         <v>45022</v>
@@ -4830,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="S63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T63" t="s">
         <v>35</v>
@@ -4859,7 +4856,7 @@
         <v>29</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
         <v>31</v>
@@ -4937,7 +4934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:29" hidden="1">
+    <row r="65" spans="1:29">
       <c r="A65">
         <v>2023</v>
       </c>
@@ -4959,7 +4956,7 @@
         <v>38</v>
       </c>
       <c r="S65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="T65" t="s">
         <v>35</v>
@@ -5068,10 +5065,10 @@
         <v>2023</v>
       </c>
       <c r="B67" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D67" t="s">
         <v>31</v>
@@ -5119,10 +5116,10 @@
         <v>35</v>
       </c>
       <c r="T67" t="s">
+        <v>99</v>
+      </c>
+      <c r="U67" t="s">
         <v>100</v>
-      </c>
-      <c r="U67" t="s">
-        <v>101</v>
       </c>
       <c r="X67" t="s">
         <v>47</v>
@@ -5143,7 +5140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29" hidden="1">
+    <row r="68" spans="1:29">
       <c r="A68">
         <v>2023</v>
       </c>
@@ -5169,7 +5166,7 @@
         <v>47364</v>
       </c>
       <c r="S68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T68" t="s">
         <v>35</v>
@@ -5249,7 +5246,7 @@
         <v>35</v>
       </c>
       <c r="T69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U69" t="s">
         <v>54</v>
@@ -5276,7 +5273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29" hidden="1">
+    <row r="70" spans="1:29">
       <c r="A70">
         <v>2023</v>
       </c>
@@ -5325,10 +5322,10 @@
         <v>2023</v>
       </c>
       <c r="B71" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D71" t="s">
         <v>31</v>
@@ -5376,10 +5373,10 @@
         <v>35</v>
       </c>
       <c r="T71" t="s">
+        <v>102</v>
+      </c>
+      <c r="U71" t="s">
         <v>103</v>
-      </c>
-      <c r="U71" t="s">
-        <v>104</v>
       </c>
       <c r="X71" t="s">
         <v>47</v>
@@ -5563,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29" hidden="1">
+    <row r="74" spans="1:29">
       <c r="A74">
         <v>2023</v>
       </c>
@@ -5610,7 +5607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:29" hidden="1">
+    <row r="75" spans="1:29">
       <c r="A75">
         <v>2023</v>
       </c>
@@ -5740,15 +5737,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:29" hidden="1">
+    <row r="77" spans="1:29">
       <c r="A77">
         <v>2023</v>
       </c>
       <c r="B77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E77" s="1">
         <v>45071</v>
@@ -5759,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="S77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T77" t="s">
         <v>35</v>
@@ -5943,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29" hidden="1">
+    <row r="80" spans="1:29">
       <c r="A80">
         <v>2023</v>
       </c>
@@ -5993,15 +5990,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:29" hidden="1">
+    <row r="81" spans="1:29">
       <c r="A81">
         <v>2023</v>
       </c>
       <c r="B81" t="s">
+        <v>95</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="E81" s="1">
         <v>45083</v>
@@ -6013,7 +6010,7 @@
         <v>5</v>
       </c>
       <c r="S81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T81" t="s">
         <v>35</v>
@@ -6114,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29" hidden="1">
+    <row r="83" spans="1:29">
       <c r="A83">
         <v>2023</v>
       </c>
@@ -6161,7 +6158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:29" hidden="1">
+    <row r="84" spans="1:29">
       <c r="A84">
         <v>2023</v>
       </c>
@@ -6213,10 +6210,10 @@
         <v>2023</v>
       </c>
       <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>97</v>
       </c>
       <c r="D85" t="s">
         <v>31</v>
@@ -6252,10 +6249,10 @@
         <v>35</v>
       </c>
       <c r="T85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U85" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="X85" t="s">
         <v>47</v>
@@ -6341,7 +6338,7 @@
         <v>33</v>
       </c>
       <c r="X86" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y86">
         <v>6</v>
@@ -6359,7 +6356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:29" hidden="1">
+    <row r="87" spans="1:29">
       <c r="A87">
         <v>2023</v>
       </c>
@@ -6385,13 +6382,13 @@
         <v>60540</v>
       </c>
       <c r="S87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T87" t="s">
         <v>35</v>
       </c>
       <c r="X87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z87">
         <v>2</v>
@@ -6406,12 +6403,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:29" hidden="1">
+    <row r="88" spans="1:29">
       <c r="A88">
         <v>2023</v>
       </c>
       <c r="B88" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>90</v>
@@ -6429,7 +6426,7 @@
         <v>38</v>
       </c>
       <c r="S88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T88" t="s">
         <v>35</v>
@@ -6438,7 +6435,7 @@
         <v>33</v>
       </c>
       <c r="X88" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z88">
         <v>0</v>
@@ -6515,7 +6512,7 @@
         <v>46</v>
       </c>
       <c r="X89" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y89">
         <v>5</v>
@@ -6538,7 +6535,7 @@
         <v>2023</v>
       </c>
       <c r="B90" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>90</v>
@@ -6580,16 +6577,16 @@
         <v>35</v>
       </c>
       <c r="T90" t="s">
+        <v>107</v>
+      </c>
+      <c r="U90" t="s">
         <v>108</v>
-      </c>
-      <c r="U90" t="s">
-        <v>109</v>
       </c>
       <c r="W90" t="s">
         <v>33</v>
       </c>
       <c r="X90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y90">
         <v>6</v>
@@ -6607,7 +6604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:29" hidden="1">
+    <row r="91" spans="1:29">
       <c r="A91">
         <v>2023</v>
       </c>
@@ -6639,7 +6636,7 @@
         <v>35</v>
       </c>
       <c r="X91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z91">
         <v>13</v>
@@ -6716,7 +6713,7 @@
         <v>75</v>
       </c>
       <c r="X92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y92">
         <v>6</v>
@@ -6739,7 +6736,7 @@
         <v>2023</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>68</v>
@@ -6781,16 +6778,16 @@
         <v>35</v>
       </c>
       <c r="T93" t="s">
+        <v>110</v>
+      </c>
+      <c r="U93" t="s">
         <v>111</v>
-      </c>
-      <c r="U93" t="s">
-        <v>112</v>
       </c>
       <c r="W93" t="s">
         <v>33</v>
       </c>
       <c r="X93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y93">
         <v>5</v>
@@ -6808,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:29" hidden="1">
+    <row r="94" spans="1:29">
       <c r="A94">
         <v>2023</v>
       </c>
@@ -6834,13 +6831,13 @@
         <v>61927</v>
       </c>
       <c r="S94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T94" t="s">
         <v>35</v>
       </c>
       <c r="X94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z94">
         <v>10</v>
@@ -6855,12 +6852,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:29" hidden="1">
+    <row r="95" spans="1:29">
       <c r="A95">
         <v>2023</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>68</v>
@@ -6881,7 +6878,7 @@
         <v>33</v>
       </c>
       <c r="S95" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T95" t="s">
         <v>35</v>
@@ -6890,7 +6887,7 @@
         <v>33</v>
       </c>
       <c r="X95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z95">
         <v>2</v>
@@ -6967,7 +6964,7 @@
         <v>54</v>
       </c>
       <c r="X96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y96">
         <v>6</v>
@@ -6985,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:29" hidden="1">
+    <row r="97" spans="1:29">
       <c r="A97">
         <v>2023</v>
       </c>
@@ -7017,7 +7014,7 @@
         <v>35</v>
       </c>
       <c r="X97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z97">
         <v>9</v>
@@ -7037,10 +7034,10 @@
         <v>2023</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
         <v>31</v>
@@ -7079,16 +7076,16 @@
         <v>35</v>
       </c>
       <c r="T98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="U98" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="W98" t="s">
         <v>33</v>
       </c>
       <c r="X98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y98">
         <v>7</v>
@@ -7162,13 +7159,13 @@
         <v>35</v>
       </c>
       <c r="T99" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U99" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y99">
         <v>7</v>
@@ -7186,15 +7183,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:29" hidden="1">
+    <row r="100" spans="1:29">
       <c r="A100">
         <v>2023</v>
       </c>
       <c r="B100" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E100" s="1">
         <v>45168</v>
@@ -7208,7 +7205,7 @@
         <v>42</v>
       </c>
       <c r="S100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T100" t="s">
         <v>35</v>
@@ -7217,7 +7214,7 @@
         <v>33</v>
       </c>
       <c r="X100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z100">
         <v>1</v>
@@ -7297,7 +7294,7 @@
         <v>33</v>
       </c>
       <c r="X101" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y101">
         <v>2</v>
@@ -7315,7 +7312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:29" hidden="1">
+    <row r="102" spans="1:29">
       <c r="A102">
         <v>2023</v>
       </c>
@@ -7347,7 +7344,7 @@
         <v>35</v>
       </c>
       <c r="X102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z102">
         <v>9</v>
@@ -7362,7 +7359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:29" hidden="1">
+    <row r="103" spans="1:29">
       <c r="A103">
         <v>2023</v>
       </c>
@@ -7394,7 +7391,7 @@
         <v>35</v>
       </c>
       <c r="X103" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Z103">
         <v>12</v>
@@ -7471,7 +7468,7 @@
         <v>62</v>
       </c>
       <c r="X104" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Y104">
         <v>3</v>
@@ -7489,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:29" hidden="1">
+    <row r="105" spans="1:29">
       <c r="A105">
         <v>2023</v>
       </c>
@@ -7536,7 +7533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:29" hidden="1">
+    <row r="106" spans="1:29">
       <c r="A106">
         <v>2023</v>
       </c>
@@ -7823,7 +7820,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:29" hidden="1">
+    <row r="110" spans="1:29">
       <c r="A110">
         <v>2023</v>
       </c>
@@ -7862,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:29" hidden="1">
+    <row r="111" spans="1:29">
       <c r="A111">
         <v>2023</v>
       </c>
@@ -7873,7 +7870,7 @@
         <v>44</v>
       </c>
       <c r="D111" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E111" s="1">
         <v>45239</v>
@@ -7918,7 +7915,7 @@
         <v>35</v>
       </c>
       <c r="T111" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="U111" t="s">
         <v>54</v>
@@ -7942,7 +7939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:29" hidden="1">
+    <row r="112" spans="1:29">
       <c r="A112">
         <v>2023</v>
       </c>
@@ -7981,7 +7978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:29" hidden="1">
+    <row r="113" spans="1:29">
       <c r="A113">
         <v>2023</v>
       </c>
@@ -8005,7 +8002,7 @@
         <v>35</v>
       </c>
       <c r="X113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z113">
         <v>9</v>
@@ -8082,7 +8079,7 @@
         <v>46</v>
       </c>
       <c r="X114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y114">
         <v>4</v>
@@ -8100,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:29" hidden="1">
+    <row r="115" spans="1:29">
       <c r="A115">
         <v>2023</v>
       </c>
@@ -8124,7 +8121,7 @@
         <v>35</v>
       </c>
       <c r="X115" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z115">
         <v>3</v>
@@ -8195,13 +8192,13 @@
         <v>35</v>
       </c>
       <c r="T116" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U116" t="s">
         <v>71</v>
       </c>
       <c r="X116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y116">
         <v>5</v>
@@ -8219,7 +8216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:29" hidden="1">
+    <row r="117" spans="1:29">
       <c r="A117">
         <v>2023</v>
       </c>
@@ -8243,7 +8240,7 @@
         <v>35</v>
       </c>
       <c r="X117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z117">
         <v>9</v>
@@ -8320,7 +8317,7 @@
         <v>40</v>
       </c>
       <c r="X118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y118">
         <v>3</v>
@@ -8403,7 +8400,7 @@
         <v>40</v>
       </c>
       <c r="X119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y119">
         <v>4</v>
@@ -8421,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:29" hidden="1">
+    <row r="120" spans="1:29">
       <c r="A120">
         <v>2024</v>
       </c>
@@ -8446,7 +8443,7 @@
         <v>35</v>
       </c>
       <c r="X120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z120">
         <v>1</v>
@@ -8520,13 +8517,13 @@
         <v>35</v>
       </c>
       <c r="T121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U121" t="s">
         <v>40</v>
       </c>
       <c r="X121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y121">
         <v>3</v>
@@ -8606,7 +8603,7 @@
         <v>40</v>
       </c>
       <c r="X122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y122">
         <v>3</v>
@@ -8624,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:29" hidden="1">
+    <row r="123" spans="1:29">
       <c r="A123">
         <v>2024</v>
       </c>
@@ -8635,7 +8632,7 @@
         <v>44</v>
       </c>
       <c r="D123" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E123" s="1">
         <v>45325</v>
@@ -8686,7 +8683,7 @@
         <v>40</v>
       </c>
       <c r="X123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y123">
         <v>6</v>
@@ -8704,7 +8701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:29" hidden="1">
+    <row r="124" spans="1:29">
       <c r="A124">
         <v>2024</v>
       </c>
@@ -8729,7 +8726,7 @@
         <v>35</v>
       </c>
       <c r="X124" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z124">
         <v>2</v>
@@ -8744,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:29" hidden="1">
+    <row r="125" spans="1:29">
       <c r="A125">
         <v>2024</v>
       </c>
@@ -8769,7 +8766,7 @@
         <v>35</v>
       </c>
       <c r="X125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z125">
         <v>9</v>
@@ -8852,7 +8849,7 @@
         <v>33</v>
       </c>
       <c r="X126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y126">
         <v>9</v>
@@ -8870,12 +8867,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:29" hidden="1">
+    <row r="127" spans="1:29">
       <c r="A127">
         <v>2024</v>
       </c>
       <c r="B127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>90</v>
@@ -8892,7 +8889,7 @@
         <v>38</v>
       </c>
       <c r="S127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T127" t="s">
         <v>35</v>
@@ -8901,7 +8898,7 @@
         <v>33</v>
       </c>
       <c r="X127" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Z127">
         <v>0</v>
@@ -8916,7 +8913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:29" hidden="1">
+    <row r="128" spans="1:29">
       <c r="A128">
         <v>2024</v>
       </c>
@@ -8944,7 +8941,7 @@
         <v>35</v>
       </c>
       <c r="X128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z128">
         <v>12</v>
@@ -8964,7 +8961,7 @@
         <v>2024</v>
       </c>
       <c r="B129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>90</v>
@@ -9003,16 +9000,16 @@
         <v>35</v>
       </c>
       <c r="T129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="U129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="W129" t="s">
         <v>33</v>
       </c>
       <c r="X129" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y129">
         <v>7</v>
@@ -9030,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:29" hidden="1">
+    <row r="130" spans="1:29">
       <c r="A130">
         <v>2024</v>
       </c>
@@ -9058,7 +9055,7 @@
         <v>35</v>
       </c>
       <c r="X130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z130">
         <v>2</v>
@@ -9078,7 +9075,7 @@
         <v>2024</v>
       </c>
       <c r="B131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C131" t="s">
         <v>50</v>
@@ -9126,7 +9123,7 @@
         <v>33</v>
       </c>
       <c r="X131" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y131">
         <v>7</v>
@@ -9144,7 +9141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:29" hidden="1">
+    <row r="132" spans="1:29">
       <c r="A132">
         <v>2024</v>
       </c>
@@ -9169,7 +9166,7 @@
         <v>33</v>
       </c>
       <c r="S132" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="T132" t="s">
         <v>35</v>
@@ -9178,7 +9175,7 @@
         <v>33</v>
       </c>
       <c r="X132" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z132">
         <v>0</v>
@@ -9193,12 +9190,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:29" hidden="1">
+    <row r="133" spans="1:29">
       <c r="A133">
         <v>2024</v>
       </c>
       <c r="B133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C133" t="s">
         <v>50</v>
@@ -9224,7 +9221,7 @@
         <v>33</v>
       </c>
       <c r="X133" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z133">
         <v>2</v>
@@ -9298,7 +9295,7 @@
         <v>35</v>
       </c>
       <c r="T134" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="U134" t="s">
         <v>40</v>
@@ -9307,7 +9304,7 @@
         <v>33</v>
       </c>
       <c r="X134" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y134">
         <v>9</v>
@@ -9325,7 +9322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:29" hidden="1">
+    <row r="135" spans="1:29">
       <c r="A135">
         <v>2024</v>
       </c>
@@ -9333,7 +9330,7 @@
         <v>29</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E135" s="1">
         <v>45378</v>
@@ -9362,7 +9359,7 @@
         <v>33</v>
       </c>
       <c r="X135" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z135">
         <v>0</v>
@@ -9385,7 +9382,7 @@
         <v>29</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D136" t="s">
         <v>31</v>
@@ -9445,7 +9442,7 @@
         <v>33</v>
       </c>
       <c r="X136" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y136">
         <v>3</v>
@@ -9468,10 +9465,10 @@
         <v>2024</v>
       </c>
       <c r="B137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D137" t="s">
         <v>31</v>
@@ -9507,13 +9504,13 @@
         <v>35</v>
       </c>
       <c r="T137" t="s">
+        <v>124</v>
+      </c>
+      <c r="U137" t="s">
         <v>125</v>
       </c>
-      <c r="U137" t="s">
-        <v>126</v>
-      </c>
       <c r="X137" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Y137">
         <v>4</v>
@@ -9531,15 +9528,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:29" hidden="1">
+    <row r="138" spans="1:29">
       <c r="A138">
         <v>2024</v>
       </c>
       <c r="B138" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E138" s="1">
         <v>45393</v>
@@ -9553,13 +9550,13 @@
         <v>2</v>
       </c>
       <c r="S138" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T138" t="s">
         <v>35</v>
       </c>
       <c r="X138" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z138">
         <v>3</v>
@@ -9574,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:29" hidden="1">
+    <row r="139" spans="1:29">
       <c r="A139">
         <v>2024</v>
       </c>
@@ -9593,13 +9590,13 @@
         <v>1</v>
       </c>
       <c r="S139" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T139" t="s">
         <v>35</v>
       </c>
       <c r="X139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z139">
         <v>0</v>
@@ -9676,7 +9673,7 @@
         <v>62</v>
       </c>
       <c r="X140" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y140">
         <v>6</v>
@@ -9759,7 +9756,7 @@
         <v>54</v>
       </c>
       <c r="X141" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y141">
         <v>4</v>
@@ -9782,10 +9779,10 @@
         <v>2024</v>
       </c>
       <c r="B142" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D142" t="s">
         <v>31</v>
@@ -9821,13 +9818,13 @@
         <v>35</v>
       </c>
       <c r="T142" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="U142" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="X142" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y142">
         <v>5</v>
@@ -9845,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:29" hidden="1">
+    <row r="143" spans="1:29">
       <c r="A143">
         <v>2024</v>
       </c>
@@ -9882,7 +9879,7 @@
         <v>33</v>
       </c>
       <c r="X143" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z143">
         <v>2</v>
@@ -9953,16 +9950,16 @@
         <v>35</v>
       </c>
       <c r="T144" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="U144" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="W144" t="s">
         <v>33</v>
       </c>
       <c r="X144" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y144">
         <v>7</v>
@@ -10039,13 +10036,13 @@
         <v>35</v>
       </c>
       <c r="T145" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U145" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y145">
         <v>8</v>
@@ -10068,10 +10065,10 @@
         <v>2024</v>
       </c>
       <c r="B146" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D146" t="s">
         <v>31</v>
@@ -10107,13 +10104,13 @@
         <v>35</v>
       </c>
       <c r="T146" t="s">
+        <v>102</v>
+      </c>
+      <c r="U146" t="s">
         <v>103</v>
       </c>
-      <c r="U146" t="s">
-        <v>104</v>
-      </c>
       <c r="X146" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y146">
         <v>8</v>
@@ -10131,7 +10128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:29" hidden="1">
+    <row r="147" spans="1:29">
       <c r="A147">
         <v>2024</v>
       </c>
@@ -10159,7 +10156,7 @@
         <v>35</v>
       </c>
       <c r="X147" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z147">
         <v>12</v>
@@ -10174,15 +10171,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:29" hidden="1">
+    <row r="148" spans="1:29">
       <c r="A148">
         <v>2024</v>
       </c>
       <c r="B148" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E148" s="1">
         <v>45428</v>
@@ -10196,13 +10193,13 @@
         <v>5</v>
       </c>
       <c r="S148" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T148" t="s">
         <v>35</v>
       </c>
       <c r="X148" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z148">
         <v>3</v>
@@ -10217,7 +10214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:29" hidden="1">
+    <row r="149" spans="1:29">
       <c r="A149">
         <v>2024</v>
       </c>
@@ -10239,7 +10236,7 @@
         <v>2</v>
       </c>
       <c r="S149" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T149" t="s">
         <v>35</v>
@@ -10248,7 +10245,7 @@
         <v>33</v>
       </c>
       <c r="X149" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z149">
         <v>2</v>
@@ -10263,15 +10260,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:29" hidden="1">
+    <row r="150" spans="1:29">
       <c r="A150">
         <v>2024</v>
       </c>
       <c r="B150" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E150" s="1">
         <v>45440</v>
@@ -10285,13 +10282,13 @@
         <v>6</v>
       </c>
       <c r="S150" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="T150" t="s">
         <v>35</v>
       </c>
       <c r="X150" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z150">
         <v>1</v>
@@ -10306,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:29" hidden="1">
+    <row r="151" spans="1:29">
       <c r="A151">
         <v>2024</v>
       </c>
@@ -10334,7 +10331,7 @@
         <v>35</v>
       </c>
       <c r="X151" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z151">
         <v>16</v>
@@ -10414,7 +10411,7 @@
         <v>33</v>
       </c>
       <c r="X152" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y152">
         <v>8</v>
@@ -10432,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:29" hidden="1">
+    <row r="153" spans="1:29">
       <c r="A153">
         <v>2024</v>
       </c>
@@ -10454,13 +10451,13 @@
         <v>9</v>
       </c>
       <c r="S153" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T153" t="s">
         <v>35</v>
       </c>
       <c r="X153" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z153">
         <v>3</v>
@@ -10537,7 +10534,7 @@
         <v>75</v>
       </c>
       <c r="X154" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y154">
         <v>5</v>
@@ -10555,7 +10552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:29" hidden="1">
+    <row r="155" spans="1:29">
       <c r="A155">
         <v>2024</v>
       </c>
@@ -10577,13 +10574,13 @@
         <v>11</v>
       </c>
       <c r="S155" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T155" t="s">
         <v>35</v>
       </c>
       <c r="X155" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z155">
         <v>2</v>
@@ -10660,7 +10657,7 @@
         <v>46</v>
       </c>
       <c r="X156" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y156">
         <v>8</v>
@@ -10678,7 +10675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:29" hidden="1">
+    <row r="157" spans="1:29">
       <c r="A157">
         <v>2024</v>
       </c>
@@ -10706,14 +10703,14 @@
         <v>35</v>
       </c>
       <c r="X157" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z157">
+        <v>15</v>
+      </c>
+      <c r="AA157">
         <v>3</v>
       </c>
-      <c r="AA157">
-        <v>15</v>
-      </c>
       <c r="AB157">
         <v>1</v>
       </c>
@@ -10721,7 +10718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:29" hidden="1">
+    <row r="158" spans="1:29">
       <c r="A158">
         <v>2024</v>
       </c>
@@ -10749,7 +10746,7 @@
         <v>35</v>
       </c>
       <c r="X158" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z158">
         <v>14</v>
@@ -10795,9 +10792,27 @@
       <c r="J159" t="s">
         <v>44</v>
       </c>
+      <c r="K159">
+        <v>21582</v>
+      </c>
       <c r="L159">
         <v>46931</v>
       </c>
+      <c r="M159">
+        <v>910175</v>
+      </c>
+      <c r="N159">
+        <v>855916.94</v>
+      </c>
+      <c r="O159">
+        <v>3681.62</v>
+      </c>
+      <c r="P159">
+        <v>54258.06</v>
+      </c>
+      <c r="Q159">
+        <v>54258.06</v>
+      </c>
       <c r="S159" t="s">
         <v>35</v>
       </c>
@@ -10808,7 +10823,7 @@
         <v>71</v>
       </c>
       <c r="X159" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y159">
         <v>5</v>
@@ -10819,8 +10834,14 @@
       <c r="AA159">
         <v>11</v>
       </c>
-    </row>
-    <row r="160" spans="1:29" hidden="1">
+      <c r="AB159">
+        <v>3</v>
+      </c>
+      <c r="AC159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:29">
       <c r="A160">
         <v>2024</v>
       </c>
@@ -10842,13 +10863,28 @@
         <v>16</v>
       </c>
       <c r="S160" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="T160" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="X160" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z160">
+        <v>15</v>
+      </c>
+      <c r="AA160">
+        <v>2</v>
+      </c>
+      <c r="AB160">
+        <v>0</v>
+      </c>
+      <c r="AC160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:29">
       <c r="A161">
         <v>2024</v>
       </c>
@@ -10867,6 +10903,9 @@
       <c r="F161" s="3">
         <v>0.89583333333333337</v>
       </c>
+      <c r="G161">
+        <v>20</v>
+      </c>
       <c r="H161">
         <v>2</v>
       </c>
@@ -10876,9 +10915,27 @@
       <c r="J161" t="s">
         <v>44</v>
       </c>
+      <c r="K161">
+        <v>39570</v>
+      </c>
       <c r="L161">
         <v>46931</v>
       </c>
+      <c r="M161">
+        <v>2545730</v>
+      </c>
+      <c r="N161">
+        <v>1643530.86</v>
+      </c>
+      <c r="O161">
+        <v>2401.83</v>
+      </c>
+      <c r="P161">
+        <v>902199.14</v>
+      </c>
+      <c r="Q161">
+        <v>902199.14</v>
+      </c>
       <c r="S161" t="s">
         <v>35</v>
       </c>
@@ -10888,8 +10945,26 @@
       <c r="U161" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="X161" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y161">
+        <v>8</v>
+      </c>
+      <c r="Z161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>2</v>
+      </c>
+      <c r="AB161">
+        <v>1</v>
+      </c>
+      <c r="AC161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:29">
       <c r="A162">
         <v>2024</v>
       </c>
@@ -10908,6 +10983,9 @@
       <c r="F162" s="3">
         <v>0.77083333333333337</v>
       </c>
+      <c r="G162">
+        <v>21</v>
+      </c>
       <c r="H162">
         <v>3</v>
       </c>
@@ -10917,9 +10995,27 @@
       <c r="J162" t="s">
         <v>44</v>
       </c>
+      <c r="K162">
+        <v>31344</v>
+      </c>
       <c r="L162">
         <v>46931</v>
       </c>
+      <c r="M162">
+        <v>1773090</v>
+      </c>
+      <c r="N162">
+        <v>1208857.95</v>
+      </c>
+      <c r="O162">
+        <v>3829.63</v>
+      </c>
+      <c r="P162">
+        <v>564232.05000000005</v>
+      </c>
+      <c r="Q162">
+        <v>564232.05000000005</v>
+      </c>
       <c r="S162" t="s">
         <v>35</v>
       </c>
@@ -10929,8 +11025,26 @@
       <c r="U162" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="163" spans="1:23" hidden="1">
+      <c r="X162" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y162">
+        <v>8</v>
+      </c>
+      <c r="Z162">
+        <v>1</v>
+      </c>
+      <c r="AA162">
+        <v>13</v>
+      </c>
+      <c r="AB162">
+        <v>1</v>
+      </c>
+      <c r="AC162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
       <c r="A163">
         <v>2024</v>
       </c>
@@ -10957,8 +11071,23 @@
       <c r="T163" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="164" spans="1:23">
+      <c r="X163" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z163">
+        <v>5</v>
+      </c>
+      <c r="AA163">
+        <v>1</v>
+      </c>
+      <c r="AB163">
+        <v>2</v>
+      </c>
+      <c r="AC163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29">
       <c r="A164">
         <v>2024</v>
       </c>
@@ -10974,6 +11103,12 @@
       <c r="E164" s="1">
         <v>45500</v>
       </c>
+      <c r="F164" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G164">
+        <v>22</v>
+      </c>
       <c r="H164">
         <v>4</v>
       </c>
@@ -10983,45 +11118,130 @@
       <c r="J164" t="s">
         <v>44</v>
       </c>
+      <c r="K164">
+        <v>19349</v>
+      </c>
       <c r="L164">
         <v>46931</v>
       </c>
+      <c r="M164">
+        <v>1085780</v>
+      </c>
+      <c r="N164">
+        <v>1018037.97</v>
+      </c>
+      <c r="O164">
+        <v>3776.07</v>
+      </c>
+      <c r="P164">
+        <v>67742.03</v>
+      </c>
+      <c r="Q164">
+        <v>67742.03</v>
+      </c>
+      <c r="R164" t="s">
+        <v>33</v>
+      </c>
       <c r="S164" t="s">
         <v>35</v>
       </c>
       <c r="T164" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="U164" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="165" spans="1:23" hidden="1">
+      <c r="X164" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y164">
+        <v>10</v>
+      </c>
+      <c r="Z164">
+        <v>1</v>
+      </c>
+      <c r="AA164">
+        <v>5</v>
+      </c>
+      <c r="AB164">
+        <v>0</v>
+      </c>
+      <c r="AC164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:29">
       <c r="A165">
         <v>2024</v>
       </c>
       <c r="B165" t="s">
-        <v>43</v>
-      </c>
-      <c r="C165" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>31</v>
       </c>
       <c r="E165" s="1">
-        <v>45507</v>
-      </c>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
+        <v>45503</v>
+      </c>
+      <c r="F165" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G165">
+        <v>20</v>
+      </c>
+      <c r="H165">
+        <v>5</v>
+      </c>
       <c r="I165">
-        <v>21</v>
+        <v>1</v>
+      </c>
+      <c r="J165" t="s">
+        <v>38</v>
+      </c>
+      <c r="K165">
+        <v>19121</v>
+      </c>
+      <c r="L165">
+        <v>46931</v>
+      </c>
+      <c r="M165">
+        <v>1100400</v>
       </c>
       <c r="S165" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="T165" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="166" spans="1:23" hidden="1">
+        <v>101</v>
+      </c>
+      <c r="U165" t="s">
+        <v>115</v>
+      </c>
+      <c r="W165" t="s">
+        <v>33</v>
+      </c>
+      <c r="X165" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y165">
+        <v>10</v>
+      </c>
+      <c r="Z165">
+        <v>0</v>
+      </c>
+      <c r="AA165">
+        <v>0</v>
+      </c>
+      <c r="AB165">
+        <v>1</v>
+      </c>
+      <c r="AC165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:29">
       <c r="A166">
         <v>2024</v>
       </c>
@@ -11032,62 +11252,82 @@
         <v>44</v>
       </c>
       <c r="E166" s="1">
-        <v>45514</v>
+        <v>45507</v>
+      </c>
+      <c r="F166" s="3">
+        <v>0.83333333333333337</v>
       </c>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
       <c r="I166">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S166" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="T166" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="Z166">
+        <v>20</v>
+      </c>
+      <c r="AA166">
+        <v>2</v>
+      </c>
+      <c r="AB166">
+        <v>1</v>
+      </c>
+      <c r="AC166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:29">
       <c r="A167">
         <v>2024</v>
       </c>
       <c r="B167" t="s">
-        <v>121</v>
+        <v>49</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D167" t="s">
-        <v>31</v>
-      </c>
       <c r="E167" s="1">
-        <v>45518</v>
-      </c>
-      <c r="H167">
-        <v>1</v>
-      </c>
+        <v>45511</v>
+      </c>
+      <c r="F167" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="G167" s="3"/>
+      <c r="H167" s="3"/>
       <c r="I167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>38</v>
-      </c>
-      <c r="L167">
-        <v>46931</v>
+        <v>42</v>
       </c>
       <c r="S167" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="T167" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="U167" t="s">
-        <v>46</v>
-      </c>
-      <c r="W167" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="168" spans="1:23">
+        <v>115</v>
+      </c>
+      <c r="Z167">
+        <v>1</v>
+      </c>
+      <c r="AA167">
+        <v>2</v>
+      </c>
+      <c r="AB167">
+        <v>1</v>
+      </c>
+      <c r="AC167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
       <c r="A168">
         <v>2024</v>
       </c>
@@ -11097,66 +11337,108 @@
       <c r="C168" t="s">
         <v>44</v>
       </c>
-      <c r="D168" t="s">
-        <v>31</v>
-      </c>
       <c r="E168" s="1">
-        <v>45521</v>
-      </c>
-      <c r="H168">
-        <v>2</v>
-      </c>
+        <v>45514</v>
+      </c>
+      <c r="F168" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="G168" s="3"/>
+      <c r="H168" s="3"/>
       <c r="I168">
-        <v>23</v>
-      </c>
-      <c r="J168" t="s">
-        <v>44</v>
-      </c>
-      <c r="L168">
-        <v>46931</v>
+        <v>22</v>
       </c>
       <c r="S168" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="T168" t="s">
-        <v>55</v>
-      </c>
-      <c r="U168" t="s">
-        <v>40</v>
-      </c>
-      <c r="V168" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="169" spans="1:23" hidden="1">
+        <v>35</v>
+      </c>
+      <c r="Z168">
+        <v>13</v>
+      </c>
+      <c r="AA168">
+        <v>1</v>
+      </c>
+      <c r="AB168">
+        <v>3</v>
+      </c>
+      <c r="AC168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:29">
       <c r="A169">
         <v>2024</v>
       </c>
       <c r="B169" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="D169" t="s">
+        <v>31</v>
+      </c>
       <c r="E169" s="1">
-        <v>45525</v>
-      </c>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
+        <v>45518</v>
+      </c>
+      <c r="F169" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G169">
+        <v>20</v>
+      </c>
+      <c r="H169">
+        <v>1</v>
+      </c>
       <c r="I169">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="J169" t="s">
+        <v>38</v>
+      </c>
+      <c r="K169">
+        <v>38848</v>
+      </c>
+      <c r="L169">
+        <v>46931</v>
+      </c>
+      <c r="M169">
+        <v>1775401.25</v>
       </c>
       <c r="S169" t="s">
+        <v>35</v>
+      </c>
+      <c r="T169" t="s">
         <v>63</v>
       </c>
-      <c r="T169" t="s">
-        <v>35</v>
+      <c r="U169" t="s">
+        <v>46</v>
       </c>
       <c r="W169" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="170" spans="1:23" hidden="1">
+      <c r="X169" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y169">
+        <v>6</v>
+      </c>
+      <c r="Z169">
+        <v>0</v>
+      </c>
+      <c r="AA169">
+        <v>0</v>
+      </c>
+      <c r="AB169">
+        <v>2</v>
+      </c>
+      <c r="AC169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:29">
       <c r="A170">
         <v>2024</v>
       </c>
@@ -11166,60 +11448,84 @@
       <c r="C170" t="s">
         <v>44</v>
       </c>
+      <c r="D170" t="s">
+        <v>31</v>
+      </c>
       <c r="E170" s="1">
-        <v>45528</v>
-      </c>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
+        <v>45522</v>
+      </c>
+      <c r="F170" s="3">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="G170">
+        <v>26</v>
+      </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
       <c r="I170">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="J170" t="s">
+        <v>44</v>
+      </c>
+      <c r="L170">
+        <v>46931</v>
       </c>
       <c r="S170" t="s">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="T170" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="171" spans="1:23">
+        <v>55</v>
+      </c>
+      <c r="U170" t="s">
+        <v>40</v>
+      </c>
+      <c r="V170" t="s">
+        <v>33</v>
+      </c>
+      <c r="X170" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y170">
+        <v>7</v>
+      </c>
+      <c r="Z170">
+        <v>1</v>
+      </c>
+      <c r="AA170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29">
       <c r="A171">
         <v>2024</v>
       </c>
       <c r="B171" t="s">
-        <v>43</v>
-      </c>
-      <c r="C171" t="s">
-        <v>44</v>
-      </c>
-      <c r="D171" t="s">
-        <v>31</v>
+        <v>120</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="E171" s="1">
-        <v>45535</v>
-      </c>
-      <c r="H171">
-        <v>3</v>
-      </c>
+        <v>45525</v>
+      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
       <c r="I171">
-        <v>25</v>
-      </c>
-      <c r="J171" t="s">
-        <v>44</v>
-      </c>
-      <c r="L171">
-        <v>46931</v>
+        <v>2</v>
       </c>
       <c r="S171" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="T171" t="s">
-        <v>57</v>
-      </c>
-      <c r="U171" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="172" spans="1:23">
+        <v>35</v>
+      </c>
+      <c r="W171" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
       <c r="A172">
         <v>2024</v>
       </c>
@@ -11229,35 +11535,22 @@
       <c r="C172" t="s">
         <v>44</v>
       </c>
-      <c r="D172" t="s">
-        <v>31</v>
-      </c>
       <c r="E172" s="1">
-        <v>45549</v>
-      </c>
-      <c r="H172">
-        <v>1</v>
-      </c>
+        <v>45528</v>
+      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
       <c r="I172">
-        <v>26</v>
-      </c>
-      <c r="J172" t="s">
-        <v>44</v>
-      </c>
-      <c r="L172">
-        <v>46931</v>
+        <v>24</v>
       </c>
       <c r="S172" t="s">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="T172" t="s">
-        <v>45</v>
-      </c>
-      <c r="U172" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="173" spans="1:23" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29">
       <c r="A173">
         <v>2024</v>
       </c>
@@ -11267,22 +11560,35 @@
       <c r="C173" t="s">
         <v>44</v>
       </c>
+      <c r="D173" t="s">
+        <v>31</v>
+      </c>
       <c r="E173" s="1">
-        <v>45556</v>
-      </c>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
+        <v>45535</v>
+      </c>
+      <c r="H173">
+        <v>3</v>
+      </c>
       <c r="I173">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="J173" t="s">
+        <v>44</v>
+      </c>
+      <c r="L173">
+        <v>46931</v>
       </c>
       <c r="S173" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T173" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="174" spans="1:23">
+        <v>57</v>
+      </c>
+      <c r="U173" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
       <c r="A174">
         <v>2024</v>
       </c>
@@ -11296,13 +11602,13 @@
         <v>31</v>
       </c>
       <c r="E174" s="1">
-        <v>45563</v>
+        <v>45549</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J174" t="s">
         <v>44</v>
@@ -11314,13 +11620,13 @@
         <v>35</v>
       </c>
       <c r="T174" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="U174" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="175" spans="1:23" hidden="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29">
       <c r="A175">
         <v>2024</v>
       </c>
@@ -11331,21 +11637,21 @@
         <v>44</v>
       </c>
       <c r="E175" s="1">
-        <v>45569</v>
+        <v>45556</v>
       </c>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
       <c r="I175">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S175" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="T175" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:29">
       <c r="A176">
         <v>2024</v>
       </c>
@@ -11359,13 +11665,13 @@
         <v>31</v>
       </c>
       <c r="E176" s="1">
-        <v>45584</v>
+        <v>45563</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J176" t="s">
         <v>44</v>
@@ -11377,13 +11683,13 @@
         <v>35</v>
       </c>
       <c r="T176" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="U176" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22" hidden="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177">
         <v>2024</v>
       </c>
@@ -11394,15 +11700,15 @@
         <v>44</v>
       </c>
       <c r="E177" s="1">
-        <v>45590</v>
+        <v>45569</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S177" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T177" t="s">
         <v>35</v>
@@ -11422,13 +11728,13 @@
         <v>31</v>
       </c>
       <c r="E178" s="1">
-        <v>45602</v>
+        <v>45584</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J178" t="s">
         <v>44</v>
@@ -11440,13 +11746,10 @@
         <v>35</v>
       </c>
       <c r="T178" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="U178" t="s">
-        <v>40</v>
-      </c>
-      <c r="V178" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
     </row>
     <row r="179" spans="1:22">
@@ -11459,35 +11762,22 @@
       <c r="C179" t="s">
         <v>44</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" s="1">
+        <v>45590</v>
+      </c>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+      <c r="I179">
         <v>31</v>
       </c>
-      <c r="E179" s="1">
-        <v>45609</v>
-      </c>
-      <c r="H179">
-        <v>2</v>
-      </c>
-      <c r="I179">
-        <v>33</v>
-      </c>
-      <c r="J179" t="s">
-        <v>44</v>
-      </c>
-      <c r="L179">
-        <v>46931</v>
-      </c>
       <c r="S179" t="s">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="T179" t="s">
-        <v>70</v>
-      </c>
-      <c r="U179" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="180" spans="1:22" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22">
       <c r="A180">
         <v>2024</v>
       </c>
@@ -11497,19 +11787,35 @@
       <c r="C180" t="s">
         <v>44</v>
       </c>
+      <c r="D180" t="s">
+        <v>31</v>
+      </c>
       <c r="E180" s="1">
-        <v>45616</v>
-      </c>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
+        <v>45602</v>
+      </c>
+      <c r="H180">
+        <v>1</v>
+      </c>
       <c r="I180">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="J180" t="s">
+        <v>44</v>
+      </c>
+      <c r="L180">
+        <v>46931</v>
       </c>
       <c r="S180" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="T180" t="s">
-        <v>35</v>
+        <v>83</v>
+      </c>
+      <c r="U180" t="s">
+        <v>40</v>
+      </c>
+      <c r="V180" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -11526,13 +11832,13 @@
         <v>31</v>
       </c>
       <c r="E181" s="1">
-        <v>45619</v>
+        <v>45609</v>
       </c>
       <c r="H181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I181">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J181" t="s">
         <v>44</v>
@@ -11544,13 +11850,13 @@
         <v>35</v>
       </c>
       <c r="T181" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="U181" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22" hidden="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22">
       <c r="A182">
         <v>2024</v>
       </c>
@@ -11561,21 +11867,21 @@
         <v>44</v>
       </c>
       <c r="E182" s="1">
-        <v>45626</v>
+        <v>45616</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S182" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="T182" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="183" spans="1:22" hidden="1">
+    <row r="183" spans="1:22">
       <c r="A183">
         <v>2024</v>
       </c>
@@ -11585,19 +11891,32 @@
       <c r="C183" t="s">
         <v>44</v>
       </c>
+      <c r="D183" t="s">
+        <v>31</v>
+      </c>
       <c r="E183" s="1">
-        <v>45630</v>
-      </c>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
+        <v>45619</v>
+      </c>
+      <c r="H183">
+        <v>3</v>
+      </c>
       <c r="I183">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="J183" t="s">
+        <v>44</v>
+      </c>
+      <c r="L183">
+        <v>46931</v>
       </c>
       <c r="S183" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="T183" t="s">
-        <v>35</v>
+        <v>128</v>
+      </c>
+      <c r="U183" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -11610,51 +11929,96 @@
       <c r="C184" t="s">
         <v>44</v>
       </c>
-      <c r="D184" t="s">
-        <v>31</v>
-      </c>
       <c r="E184" s="1">
-        <v>45634</v>
-      </c>
-      <c r="H184">
-        <v>1</v>
-      </c>
+        <v>45626</v>
+      </c>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
       <c r="I184">
-        <v>38</v>
-      </c>
-      <c r="J184" t="s">
-        <v>44</v>
-      </c>
-      <c r="L184">
-        <v>46931</v>
+        <v>36</v>
       </c>
       <c r="S184" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="T184" t="s">
-        <v>66</v>
-      </c>
-      <c r="U184" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22" hidden="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22">
+      <c r="A185">
+        <v>2024</v>
+      </c>
+      <c r="B185" t="s">
+        <v>43</v>
+      </c>
+      <c r="C185" t="s">
+        <v>44</v>
+      </c>
+      <c r="E185" s="1">
+        <v>45630</v>
+      </c>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
+      <c r="I185">
+        <v>37</v>
+      </c>
+      <c r="S185" t="s">
+        <v>67</v>
+      </c>
+      <c r="T185" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22">
+      <c r="A186">
+        <v>2024</v>
+      </c>
+      <c r="B186" t="s">
+        <v>43</v>
+      </c>
+      <c r="C186" t="s">
+        <v>44</v>
+      </c>
+      <c r="D186" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186" s="1">
+        <v>45634</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186">
+        <v>38</v>
+      </c>
+      <c r="J186" t="s">
+        <v>44</v>
+      </c>
+      <c r="L186">
+        <v>46931</v>
+      </c>
+      <c r="S186" t="s">
+        <v>35</v>
+      </c>
+      <c r="T186" t="s">
+        <v>66</v>
+      </c>
+      <c r="U186" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22">
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC185" xr:uid="{301F969D-DFCA-4A79-8310-530A765857C0}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Nilton Santos"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC185">
-      <sortCondition ref="E1:E185"/>
+  <autoFilter ref="A1:AC187" xr:uid="{301F969D-DFCA-4A79-8310-530A765857C0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC187">
+      <sortCondition ref="E1:E187"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC185">
-    <sortCondition ref="E1:E185"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC187">
+    <sortCondition ref="E1:E187"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/botafogo_previsao_estadio.xlsx
+++ b/botafogo_previsao_estadio.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9399af9f441dfb25/Documentos/Projeto Futebol/ia-botafogo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3029" documentId="8_{FF0F605F-F2C5-4D0A-9132-A4D8069F1A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE10D402-AE09-4C33-9F97-11062DD785B9}"/>
+  <xr:revisionPtr revIDLastSave="4045" documentId="8_{FF0F605F-F2C5-4D0A-9132-A4D8069F1A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E73B9E2-E4B0-4299-99BF-5808D725FE04}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BDAF93C4-966A-4323-BFDC-13327AEDDB19}"/>
+    <workbookView minimized="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{BDAF93C4-966A-4323-BFDC-13327AEDDB19}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$AC$187</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$AC$192</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="160">
   <si>
     <t>ano_campeonato</t>
   </si>
@@ -429,6 +429,96 @@
   </si>
   <si>
     <t>Criciúma</t>
+  </si>
+  <si>
+    <t>Maracanã</t>
+  </si>
+  <si>
+    <t>Peñarol</t>
+  </si>
+  <si>
+    <t>URU</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>unico</t>
+  </si>
+  <si>
+    <t>mundial</t>
+  </si>
+  <si>
+    <t>Pachuca</t>
+  </si>
+  <si>
+    <t>Maricá</t>
+  </si>
+  <si>
+    <t>Carlos Leiria</t>
+  </si>
+  <si>
+    <t>recopa-brasileira</t>
+  </si>
+  <si>
+    <t>Mangueirão</t>
+  </si>
+  <si>
+    <t>recopa-sulamericana</t>
+  </si>
+  <si>
+    <t>Racing</t>
+  </si>
+  <si>
+    <t>amistoso</t>
+  </si>
+  <si>
+    <t>Novorizontino</t>
+  </si>
+  <si>
+    <t>Renato Paiva</t>
+  </si>
+  <si>
+    <t>Universidade de Chile</t>
+  </si>
+  <si>
+    <t>Carabobo</t>
+  </si>
+  <si>
+    <t>VEN</t>
+  </si>
+  <si>
+    <t>Estudiantes de La Plata</t>
+  </si>
+  <si>
+    <t>Mirassol</t>
+  </si>
+  <si>
+    <t>copa do mundo de clubes</t>
+  </si>
+  <si>
+    <t>Seattle Sounders</t>
+  </si>
+  <si>
+    <t>EUA</t>
+  </si>
+  <si>
+    <t>Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>PE</t>
   </si>
 </sst>
 </file>
@@ -481,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -489,6 +579,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,11 +914,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{301F969D-DFCA-4A79-8310-530A765857C0}">
-  <dimension ref="A1:AC187"/>
+  <dimension ref="A1:AC254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="B160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+      <pane ySplit="1" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -849,7 +940,8 @@
     <col min="16" max="16" width="12.5703125" customWidth="1"/>
     <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="18" customWidth="1"/>
     <col min="24" max="25" width="19" customWidth="1"/>
@@ -859,7 +951,7 @@
     <col min="29" max="29" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="4" customFormat="1">
+    <row r="1" spans="1:29" s="4" customFormat="1" ht="14.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -948,7 +1040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:29">
+    <row r="2" spans="1:29" ht="14.45">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -1007,7 +1099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:29" ht="14.45">
       <c r="A3">
         <v>2022</v>
       </c>
@@ -1093,7 +1185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:29" ht="14.45">
       <c r="A4">
         <v>2022</v>
       </c>
@@ -1138,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:29">
+    <row r="5" spans="1:29" ht="14.45">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1218,7 +1310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:29">
+    <row r="6" spans="1:29" ht="14.45">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -1265,7 +1357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:29">
+    <row r="7" spans="1:29" ht="14.45">
       <c r="A7">
         <v>2022</v>
       </c>
@@ -1310,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:29">
+    <row r="8" spans="1:29" ht="14.45">
       <c r="A8">
         <v>2022</v>
       </c>
@@ -1357,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29">
+    <row r="9" spans="1:29" ht="14.45">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1437,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="14.45">
       <c r="A10">
         <v>2022</v>
       </c>
@@ -1484,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:29">
+    <row r="11" spans="1:29" ht="14.45">
       <c r="A11">
         <v>2022</v>
       </c>
@@ -1567,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:29">
+    <row r="12" spans="1:29" ht="14.45">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -1647,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:29">
+    <row r="13" spans="1:29" ht="14.45">
       <c r="A13">
         <v>2022</v>
       </c>
@@ -1694,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:29">
+    <row r="14" spans="1:29" ht="14.45">
       <c r="A14">
         <v>2022</v>
       </c>
@@ -1741,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:29">
+    <row r="15" spans="1:29" ht="14.45">
       <c r="A15">
         <v>2022</v>
       </c>
@@ -1821,7 +1913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:29">
+    <row r="16" spans="1:29" ht="14.45">
       <c r="A16">
         <v>2022</v>
       </c>
@@ -1868,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:29" ht="14.45">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -1948,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:29">
+    <row r="18" spans="1:29" ht="14.45">
       <c r="A18">
         <v>2022</v>
       </c>
@@ -2028,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:29" ht="14.45">
       <c r="A19">
         <v>2022</v>
       </c>
@@ -2075,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:29">
+    <row r="20" spans="1:29" ht="14.45">
       <c r="A20">
         <v>2022</v>
       </c>
@@ -2158,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:29">
+    <row r="21" spans="1:29" ht="14.45">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -2203,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:29">
+    <row r="22" spans="1:29" ht="14.45">
       <c r="A22">
         <v>2022</v>
       </c>
@@ -2250,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:29">
+    <row r="23" spans="1:29" ht="14.45">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -2297,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:29">
+    <row r="24" spans="1:29" ht="14.45">
       <c r="A24">
         <v>2022</v>
       </c>
@@ -2380,7 +2472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:29" ht="14.45">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -2460,7 +2552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
+    <row r="26" spans="1:29" ht="14.45">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -2507,7 +2599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:29">
+    <row r="27" spans="1:29" ht="14.45">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -2587,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:29">
+    <row r="28" spans="1:29" ht="14.45">
       <c r="A28">
         <v>2022</v>
       </c>
@@ -2634,7 +2726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:29">
+    <row r="29" spans="1:29" ht="14.45">
       <c r="A29">
         <v>2022</v>
       </c>
@@ -2714,7 +2806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:29">
+    <row r="30" spans="1:29" ht="14.45">
       <c r="A30">
         <v>2022</v>
       </c>
@@ -2794,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:29">
+    <row r="31" spans="1:29" ht="14.45">
       <c r="A31">
         <v>2022</v>
       </c>
@@ -2841,7 +2933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:29">
+    <row r="32" spans="1:29" ht="14.45">
       <c r="A32">
         <v>2022</v>
       </c>
@@ -2924,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29">
+    <row r="33" spans="1:29" ht="14.45">
       <c r="A33">
         <v>2022</v>
       </c>
@@ -2971,7 +3063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:29">
+    <row r="34" spans="1:29" ht="14.45">
       <c r="A34">
         <v>2022</v>
       </c>
@@ -3051,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:29">
+    <row r="35" spans="1:29" ht="14.45">
       <c r="A35">
         <v>2022</v>
       </c>
@@ -3131,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:29">
+    <row r="36" spans="1:29" ht="14.45">
       <c r="A36">
         <v>2022</v>
       </c>
@@ -3178,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:29">
+    <row r="37" spans="1:29" ht="14.45">
       <c r="A37">
         <v>2022</v>
       </c>
@@ -3258,7 +3350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:29">
+    <row r="38" spans="1:29" ht="14.45">
       <c r="A38">
         <v>2022</v>
       </c>
@@ -3305,7 +3397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:29">
+    <row r="39" spans="1:29" ht="14.45">
       <c r="A39">
         <v>2022</v>
       </c>
@@ -3352,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:29">
+    <row r="40" spans="1:29" ht="14.45">
       <c r="A40">
         <v>2022</v>
       </c>
@@ -3432,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29">
+    <row r="41" spans="1:29" ht="14.45">
       <c r="A41">
         <v>2022</v>
       </c>
@@ -3479,7 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:29">
+    <row r="42" spans="1:29" ht="14.45">
       <c r="A42">
         <v>2022</v>
       </c>
@@ -3559,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:29">
+    <row r="43" spans="1:29" ht="14.45">
       <c r="A43">
         <v>2022</v>
       </c>
@@ -3639,7 +3731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:29">
+    <row r="44" spans="1:29" ht="14.45">
       <c r="A44">
         <v>2022</v>
       </c>
@@ -3686,7 +3778,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:29">
+    <row r="45" spans="1:29" ht="14.45">
       <c r="A45">
         <v>2022</v>
       </c>
@@ -3766,7 +3858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:29">
+    <row r="46" spans="1:29" ht="14.45">
       <c r="A46">
         <v>2022</v>
       </c>
@@ -3813,7 +3905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:29">
+    <row r="47" spans="1:29" ht="14.45">
       <c r="A47">
         <v>2023</v>
       </c>
@@ -3893,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:29">
+    <row r="48" spans="1:29" ht="14.45">
       <c r="A48">
         <v>2023</v>
       </c>
@@ -3934,7 +4026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:29">
+    <row r="49" spans="1:29" ht="14.45">
       <c r="A49">
         <v>2023</v>
       </c>
@@ -4017,7 +4109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:29">
+    <row r="50" spans="1:29" ht="14.45">
       <c r="A50">
         <v>2023</v>
       </c>
@@ -4058,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:29">
+    <row r="51" spans="1:29" ht="14.45">
       <c r="A51">
         <v>2023</v>
       </c>
@@ -4141,7 +4233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29">
+    <row r="52" spans="1:29" ht="14.45">
       <c r="A52">
         <v>2023</v>
       </c>
@@ -4181,7 +4273,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:29">
+    <row r="53" spans="1:29" ht="14.45">
       <c r="A53">
         <v>2023</v>
       </c>
@@ -4261,7 +4353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:29">
+    <row r="54" spans="1:29" ht="14.45">
       <c r="A54">
         <v>2023</v>
       </c>
@@ -4301,7 +4393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:29">
+    <row r="55" spans="1:29" ht="14.45">
       <c r="A55">
         <v>2023</v>
       </c>
@@ -4384,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:29">
+    <row r="56" spans="1:29" ht="14.45">
       <c r="A56">
         <v>2023</v>
       </c>
@@ -4430,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:29">
+    <row r="57" spans="1:29" ht="14.45">
       <c r="A57">
         <v>2023</v>
       </c>
@@ -4470,7 +4562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:29">
+    <row r="58" spans="1:29" ht="14.45">
       <c r="A58">
         <v>2023</v>
       </c>
@@ -4550,7 +4642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:29">
+    <row r="59" spans="1:29" ht="14.45">
       <c r="A59">
         <v>2023</v>
       </c>
@@ -4633,7 +4725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:29">
+    <row r="60" spans="1:29" ht="14.45">
       <c r="A60">
         <v>2023</v>
       </c>
@@ -4679,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:29">
+    <row r="61" spans="1:29" ht="14.45">
       <c r="A61">
         <v>2023</v>
       </c>
@@ -4762,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:29">
+    <row r="62" spans="1:29" ht="14.45">
       <c r="A62">
         <v>2023</v>
       </c>
@@ -4808,7 +4900,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:29">
+    <row r="63" spans="1:29" ht="14.45">
       <c r="A63">
         <v>2023</v>
       </c>
@@ -4848,7 +4940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:29">
+    <row r="64" spans="1:29" ht="14.45">
       <c r="A64">
         <v>2023</v>
       </c>
@@ -4934,7 +5026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" ht="14.45">
       <c r="A65">
         <v>2023</v>
       </c>
@@ -4980,7 +5072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" ht="14.45">
       <c r="A66">
         <v>2023</v>
       </c>
@@ -5060,7 +5152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:29">
+    <row r="67" spans="1:29" ht="14.45">
       <c r="A67">
         <v>2023</v>
       </c>
@@ -5140,7 +5232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" ht="14.45">
       <c r="A68">
         <v>2023</v>
       </c>
@@ -5187,7 +5279,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" ht="14.45">
       <c r="A69">
         <v>2023</v>
       </c>
@@ -5273,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" ht="14.45">
       <c r="A70">
         <v>2023</v>
       </c>
@@ -5317,7 +5409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" ht="14.45">
       <c r="A71">
         <v>2023</v>
       </c>
@@ -5397,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" ht="14.45">
       <c r="A72">
         <v>2023</v>
       </c>
@@ -5480,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" ht="14.45">
       <c r="A73">
         <v>2023</v>
       </c>
@@ -5560,7 +5652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" ht="14.45">
       <c r="A74">
         <v>2023</v>
       </c>
@@ -5607,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" ht="14.45">
       <c r="A75">
         <v>2023</v>
       </c>
@@ -5654,7 +5746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" ht="14.45">
       <c r="A76">
         <v>2023</v>
       </c>
@@ -5737,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" ht="14.45">
       <c r="A77">
         <v>2023</v>
       </c>
@@ -5777,7 +5869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:29">
+    <row r="78" spans="1:29" ht="14.45">
       <c r="A78">
         <v>2023</v>
       </c>
@@ -5857,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" ht="14.45">
       <c r="A79">
         <v>2023</v>
       </c>
@@ -5940,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" ht="14.45">
       <c r="A80">
         <v>2023</v>
       </c>
@@ -5990,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" ht="14.45">
       <c r="A81">
         <v>2023</v>
       </c>
@@ -6031,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" ht="14.45">
       <c r="A82">
         <v>2023</v>
       </c>
@@ -6111,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:29" ht="14.45">
       <c r="A83">
         <v>2023</v>
       </c>
@@ -6158,7 +6250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:29" ht="14.45">
       <c r="A84">
         <v>2023</v>
       </c>
@@ -6205,7 +6297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:29" ht="14.45">
       <c r="A85">
         <v>2023</v>
       </c>
@@ -6273,7 +6365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" ht="14.45">
       <c r="A86">
         <v>2023</v>
       </c>
@@ -6356,7 +6448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" ht="14.45">
       <c r="A87">
         <v>2023</v>
       </c>
@@ -6403,7 +6495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" ht="14.45">
       <c r="A88">
         <v>2023</v>
       </c>
@@ -6450,7 +6542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:29">
+    <row r="89" spans="1:29" ht="14.45">
       <c r="A89">
         <v>2023</v>
       </c>
@@ -6530,7 +6622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" ht="14.45">
       <c r="A90">
         <v>2023</v>
       </c>
@@ -6604,7 +6696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" ht="14.45">
       <c r="A91">
         <v>2023</v>
       </c>
@@ -6651,7 +6743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" ht="14.45">
       <c r="A92">
         <v>2023</v>
       </c>
@@ -6731,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" ht="14.45">
       <c r="A93">
         <v>2023</v>
       </c>
@@ -6805,7 +6897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" ht="14.45">
       <c r="A94">
         <v>2023</v>
       </c>
@@ -6852,7 +6944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" ht="14.45">
       <c r="A95">
         <v>2023</v>
       </c>
@@ -6902,7 +6994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:29" ht="14.45">
       <c r="A96">
         <v>2023</v>
       </c>
@@ -6982,7 +7074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:29">
+    <row r="97" spans="1:29" ht="14.45">
       <c r="A97">
         <v>2023</v>
       </c>
@@ -7029,7 +7121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:29">
+    <row r="98" spans="1:29" ht="14.45">
       <c r="A98">
         <v>2023</v>
       </c>
@@ -7103,7 +7195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:29">
+    <row r="99" spans="1:29" ht="14.45">
       <c r="A99">
         <v>2023</v>
       </c>
@@ -7183,7 +7275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:29">
+    <row r="100" spans="1:29" ht="14.45">
       <c r="A100">
         <v>2023</v>
       </c>
@@ -7229,7 +7321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:29">
+    <row r="101" spans="1:29" ht="14.45">
       <c r="A101">
         <v>2023</v>
       </c>
@@ -7312,7 +7404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" ht="14.45">
       <c r="A102">
         <v>2023</v>
       </c>
@@ -7359,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" ht="14.45">
       <c r="A103">
         <v>2023</v>
       </c>
@@ -7406,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" ht="14.45">
       <c r="A104">
         <v>2023</v>
       </c>
@@ -7486,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" ht="14.45">
       <c r="A105">
         <v>2023</v>
       </c>
@@ -7533,7 +7625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" ht="14.45">
       <c r="A106">
         <v>2023</v>
       </c>
@@ -7580,7 +7672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:29">
+    <row r="107" spans="1:29" ht="14.45">
       <c r="A107">
         <v>2023</v>
       </c>
@@ -7660,7 +7752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:29">
+    <row r="108" spans="1:29" ht="14.45">
       <c r="A108">
         <v>2023</v>
       </c>
@@ -7740,7 +7832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:29">
+    <row r="109" spans="1:29" ht="14.45">
       <c r="A109">
         <v>2023</v>
       </c>
@@ -7820,7 +7912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" ht="14.45">
       <c r="A110">
         <v>2023</v>
       </c>
@@ -7859,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" ht="14.45">
       <c r="A111">
         <v>2023</v>
       </c>
@@ -7939,7 +8031,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" ht="14.45">
       <c r="A112">
         <v>2023</v>
       </c>
@@ -7978,7 +8070,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" ht="14.45">
       <c r="A113">
         <v>2023</v>
       </c>
@@ -8017,7 +8109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" ht="14.45">
       <c r="A114">
         <v>2023</v>
       </c>
@@ -8097,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" ht="14.45">
       <c r="A115">
         <v>2023</v>
       </c>
@@ -8136,7 +8228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" ht="14.45">
       <c r="A116">
         <v>2023</v>
       </c>
@@ -8216,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" ht="14.45">
       <c r="A117">
         <v>2023</v>
       </c>
@@ -8255,7 +8347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" ht="14.45">
       <c r="A118">
         <v>2024</v>
       </c>
@@ -8335,7 +8427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:29" ht="14.45">
       <c r="A119">
         <v>2024</v>
       </c>
@@ -8418,7 +8510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" ht="14.45">
       <c r="A120">
         <v>2024</v>
       </c>
@@ -8458,7 +8550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:29" ht="14.45">
       <c r="A121">
         <v>2024</v>
       </c>
@@ -8541,7 +8633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" ht="14.45">
       <c r="A122">
         <v>2024</v>
       </c>
@@ -8621,7 +8713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:29" ht="14.45">
       <c r="A123">
         <v>2024</v>
       </c>
@@ -8701,7 +8793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:29" ht="14.45">
       <c r="A124">
         <v>2024</v>
       </c>
@@ -8741,7 +8833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:29" ht="14.45">
       <c r="A125">
         <v>2024</v>
       </c>
@@ -8781,7 +8873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:29" ht="14.45">
       <c r="A126">
         <v>2024</v>
       </c>
@@ -8867,7 +8959,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:29" ht="14.45">
       <c r="A127">
         <v>2024</v>
       </c>
@@ -8913,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:29" ht="14.45">
       <c r="A128">
         <v>2024</v>
       </c>
@@ -8956,7 +9048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:29">
+    <row r="129" spans="1:29" ht="14.45">
       <c r="A129">
         <v>2024</v>
       </c>
@@ -9027,7 +9119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:29">
+    <row r="130" spans="1:29" ht="14.45">
       <c r="A130">
         <v>2024</v>
       </c>
@@ -9070,7 +9162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:29">
+    <row r="131" spans="1:29" ht="14.45">
       <c r="A131">
         <v>2024</v>
       </c>
@@ -9141,7 +9233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:29">
+    <row r="132" spans="1:29" ht="14.45">
       <c r="A132">
         <v>2024</v>
       </c>
@@ -9190,7 +9282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:29">
+    <row r="133" spans="1:29" ht="14.45">
       <c r="A133">
         <v>2024</v>
       </c>
@@ -9236,7 +9328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:29">
+    <row r="134" spans="1:29" ht="14.45">
       <c r="A134">
         <v>2024</v>
       </c>
@@ -9322,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:29">
+    <row r="135" spans="1:29" ht="14.45">
       <c r="A135">
         <v>2024</v>
       </c>
@@ -9374,7 +9466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:29">
+    <row r="136" spans="1:29" ht="14.45">
       <c r="A136">
         <v>2024</v>
       </c>
@@ -9460,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:29">
+    <row r="137" spans="1:29" ht="14.45">
       <c r="A137">
         <v>2024</v>
       </c>
@@ -9528,7 +9620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:29">
+    <row r="138" spans="1:29" ht="14.45">
       <c r="A138">
         <v>2024</v>
       </c>
@@ -9571,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:29">
+    <row r="139" spans="1:29" ht="14.45">
       <c r="A139">
         <v>2024</v>
       </c>
@@ -9611,7 +9703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:29">
+    <row r="140" spans="1:29" ht="14.45">
       <c r="A140">
         <v>2024</v>
       </c>
@@ -9691,7 +9783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:29">
+    <row r="141" spans="1:29" ht="14.45">
       <c r="A141">
         <v>2024</v>
       </c>
@@ -9774,7 +9866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:29">
+    <row r="142" spans="1:29" ht="14.45">
       <c r="A142">
         <v>2024</v>
       </c>
@@ -9842,7 +9934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:29">
+    <row r="143" spans="1:29" ht="14.45">
       <c r="A143">
         <v>2024</v>
       </c>
@@ -9894,7 +9986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:29">
+    <row r="144" spans="1:29" ht="14.45">
       <c r="A144">
         <v>2024</v>
       </c>
@@ -9977,7 +10069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:29">
+    <row r="145" spans="1:29" ht="14.45">
       <c r="A145">
         <v>2024</v>
       </c>
@@ -10060,7 +10152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:29">
+    <row r="146" spans="1:29" ht="14.45">
       <c r="A146">
         <v>2024</v>
       </c>
@@ -10128,7 +10220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:29">
+    <row r="147" spans="1:29" ht="14.45">
       <c r="A147">
         <v>2024</v>
       </c>
@@ -10171,7 +10263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:29">
+    <row r="148" spans="1:29" ht="14.45">
       <c r="A148">
         <v>2024</v>
       </c>
@@ -10214,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:29">
+    <row r="149" spans="1:29" ht="14.45">
       <c r="A149">
         <v>2024</v>
       </c>
@@ -10260,7 +10352,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:29">
+    <row r="150" spans="1:29" ht="14.45">
       <c r="A150">
         <v>2024</v>
       </c>
@@ -10303,7 +10395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:29">
+    <row r="151" spans="1:29" ht="14.45">
       <c r="A151">
         <v>2024</v>
       </c>
@@ -10346,7 +10438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:29">
+    <row r="152" spans="1:29" ht="14.45">
       <c r="A152">
         <v>2024</v>
       </c>
@@ -10429,7 +10521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:29">
+    <row r="153" spans="1:29" ht="14.45">
       <c r="A153">
         <v>2024</v>
       </c>
@@ -10472,7 +10564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:29">
+    <row r="154" spans="1:29" ht="14.45">
       <c r="A154">
         <v>2024</v>
       </c>
@@ -10552,7 +10644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:29">
+    <row r="155" spans="1:29" ht="14.45">
       <c r="A155">
         <v>2024</v>
       </c>
@@ -10595,7 +10687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:29">
+    <row r="156" spans="1:29" ht="14.45">
       <c r="A156">
         <v>2024</v>
       </c>
@@ -10675,7 +10767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:29">
+    <row r="157" spans="1:29" ht="14.45">
       <c r="A157">
         <v>2024</v>
       </c>
@@ -10718,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:29">
+    <row r="158" spans="1:29" ht="14.45">
       <c r="A158">
         <v>2024</v>
       </c>
@@ -10761,7 +10853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:29">
+    <row r="159" spans="1:29" ht="14.45">
       <c r="A159">
         <v>2024</v>
       </c>
@@ -10841,7 +10933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:29">
+    <row r="160" spans="1:29" ht="14.45">
       <c r="A160">
         <v>2024</v>
       </c>
@@ -10884,7 +10976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:29">
+    <row r="161" spans="1:29" ht="14.45">
       <c r="A161">
         <v>2024</v>
       </c>
@@ -10964,7 +11056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:29">
+    <row r="162" spans="1:29" ht="14.45">
       <c r="A162">
         <v>2024</v>
       </c>
@@ -11044,7 +11136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:29">
+    <row r="163" spans="1:29" ht="14.45">
       <c r="A163">
         <v>2024</v>
       </c>
@@ -11087,7 +11179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:29">
+    <row r="164" spans="1:29" ht="14.45">
       <c r="A164">
         <v>2024</v>
       </c>
@@ -11170,7 +11262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:29">
+    <row r="165" spans="1:29" ht="14.45">
       <c r="A165">
         <v>2024</v>
       </c>
@@ -11210,6 +11302,18 @@
       <c r="M165">
         <v>1100400</v>
       </c>
+      <c r="N165">
+        <v>1196672.3799999999</v>
+      </c>
+      <c r="O165">
+        <v>4481.03</v>
+      </c>
+      <c r="P165">
+        <v>-96272.38</v>
+      </c>
+      <c r="Q165">
+        <v>-96272.38</v>
+      </c>
       <c r="S165" t="s">
         <v>35</v>
       </c>
@@ -11241,7 +11345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:29">
+    <row r="166" spans="1:29" ht="14.45">
       <c r="A166">
         <v>2024</v>
       </c>
@@ -11268,6 +11372,9 @@
       <c r="T166" t="s">
         <v>35</v>
       </c>
+      <c r="X166" t="s">
+        <v>126</v>
+      </c>
       <c r="Z166">
         <v>20</v>
       </c>
@@ -11281,7 +11388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:29">
+    <row r="167" spans="1:29" ht="14.45">
       <c r="A167">
         <v>2024</v>
       </c>
@@ -11314,6 +11421,9 @@
       <c r="U167" t="s">
         <v>115</v>
       </c>
+      <c r="X167" t="s">
+        <v>126</v>
+      </c>
       <c r="Z167">
         <v>1</v>
       </c>
@@ -11327,7 +11437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:29">
+    <row r="168" spans="1:29" ht="14.45">
       <c r="A168">
         <v>2024</v>
       </c>
@@ -11354,6 +11464,9 @@
       <c r="T168" t="s">
         <v>35</v>
       </c>
+      <c r="X168" t="s">
+        <v>126</v>
+      </c>
       <c r="Z168">
         <v>13</v>
       </c>
@@ -11367,7 +11480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:29">
+    <row r="169" spans="1:29" ht="14.45">
       <c r="A169">
         <v>2024</v>
       </c>
@@ -11438,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:29">
+    <row r="170" spans="1:29" ht="14.45">
       <c r="A170">
         <v>2024</v>
       </c>
@@ -11469,9 +11582,27 @@
       <c r="J170" t="s">
         <v>44</v>
       </c>
+      <c r="K170">
+        <v>25888</v>
+      </c>
       <c r="L170">
         <v>46931</v>
       </c>
+      <c r="M170">
+        <v>1909690</v>
+      </c>
+      <c r="N170">
+        <v>1381097.89</v>
+      </c>
+      <c r="O170">
+        <v>2395.92</v>
+      </c>
+      <c r="P170">
+        <v>528592.11</v>
+      </c>
+      <c r="Q170">
+        <v>528592.11</v>
+      </c>
       <c r="S170" t="s">
         <v>35</v>
       </c>
@@ -11496,8 +11627,14 @@
       <c r="AA170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:29">
+      <c r="AB170">
+        <v>4</v>
+      </c>
+      <c r="AC170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:29" ht="14.45">
       <c r="A171">
         <v>2024</v>
       </c>
@@ -11509,6 +11646,9 @@
       </c>
       <c r="E171" s="1">
         <v>45525</v>
+      </c>
+      <c r="F171" s="3">
+        <v>0.89583333333333337</v>
       </c>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
@@ -11524,8 +11664,26 @@
       <c r="W171" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="172" spans="1:29">
+      <c r="X171" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y171">
+        <v>7</v>
+      </c>
+      <c r="Z171">
+        <v>2</v>
+      </c>
+      <c r="AA171">
+        <v>1</v>
+      </c>
+      <c r="AB171">
+        <v>2</v>
+      </c>
+      <c r="AC171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29" ht="14.45">
       <c r="A172">
         <v>2024</v>
       </c>
@@ -11537,6 +11695,9 @@
       </c>
       <c r="E172" s="1">
         <v>45528</v>
+      </c>
+      <c r="F172" s="3">
+        <v>0.77083333333333337</v>
       </c>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
@@ -11549,8 +11710,23 @@
       <c r="T172" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="173" spans="1:29">
+      <c r="X172" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z172">
+        <v>5</v>
+      </c>
+      <c r="AA172">
+        <v>1</v>
+      </c>
+      <c r="AB172">
+        <v>0</v>
+      </c>
+      <c r="AC172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:29" ht="14.45">
       <c r="A173">
         <v>2024</v>
       </c>
@@ -11566,6 +11742,12 @@
       <c r="E173" s="1">
         <v>45535</v>
       </c>
+      <c r="F173" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G173">
+        <v>22</v>
+      </c>
       <c r="H173">
         <v>3</v>
       </c>
@@ -11575,9 +11757,27 @@
       <c r="J173" t="s">
         <v>44</v>
       </c>
+      <c r="K173">
+        <v>32564</v>
+      </c>
       <c r="L173">
         <v>46931</v>
       </c>
+      <c r="M173">
+        <v>1890400</v>
+      </c>
+      <c r="N173">
+        <v>1453110.64</v>
+      </c>
+      <c r="O173">
+        <v>5102.3900000000003</v>
+      </c>
+      <c r="P173">
+        <v>437289.36</v>
+      </c>
+      <c r="Q173">
+        <v>437289.36</v>
+      </c>
       <c r="S173" t="s">
         <v>35</v>
       </c>
@@ -11587,8 +11787,26 @@
       <c r="U173" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="174" spans="1:29">
+      <c r="X173" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y173">
+        <v>5</v>
+      </c>
+      <c r="Z173">
+        <v>2</v>
+      </c>
+      <c r="AA173">
+        <v>1</v>
+      </c>
+      <c r="AB173">
+        <v>2</v>
+      </c>
+      <c r="AC173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29" ht="14.45">
       <c r="A174">
         <v>2024</v>
       </c>
@@ -11604,6 +11822,12 @@
       <c r="E174" s="1">
         <v>45549</v>
       </c>
+      <c r="F174" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G174">
+        <v>25</v>
+      </c>
       <c r="H174">
         <v>1</v>
       </c>
@@ -11613,9 +11837,27 @@
       <c r="J174" t="s">
         <v>44</v>
       </c>
+      <c r="K174">
+        <v>32691</v>
+      </c>
       <c r="L174">
         <v>46931</v>
       </c>
+      <c r="M174">
+        <v>2115360</v>
+      </c>
+      <c r="N174">
+        <v>1358559.28</v>
+      </c>
+      <c r="O174">
+        <v>856.23</v>
+      </c>
+      <c r="P174">
+        <v>756800.72</v>
+      </c>
+      <c r="Q174">
+        <v>756800.72</v>
+      </c>
       <c r="S174" t="s">
         <v>35</v>
       </c>
@@ -11625,33 +11867,97 @@
       <c r="U174" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="175" spans="1:29">
+      <c r="X174" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y174">
+        <v>6</v>
+      </c>
+      <c r="Z174">
+        <v>1</v>
+      </c>
+      <c r="AA174">
+        <v>17</v>
+      </c>
+      <c r="AB174">
+        <v>2</v>
+      </c>
+      <c r="AC174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:29" ht="14.45">
       <c r="A175">
         <v>2024</v>
       </c>
       <c r="B175" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C175" t="s">
-        <v>44</v>
+        <v>113</v>
+      </c>
+      <c r="D175" t="s">
+        <v>31</v>
       </c>
       <c r="E175" s="1">
-        <v>45556</v>
-      </c>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
+        <v>45553</v>
+      </c>
+      <c r="F175" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G175">
+        <v>22</v>
+      </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
       <c r="I175">
-        <v>27</v>
+        <v>1</v>
+      </c>
+      <c r="J175" t="s">
+        <v>38</v>
+      </c>
+      <c r="K175">
+        <v>40089</v>
+      </c>
+      <c r="L175">
+        <v>46931</v>
+      </c>
+      <c r="M175">
+        <v>2466890</v>
       </c>
       <c r="S175" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="T175" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="176" spans="1:29">
+        <v>66</v>
+      </c>
+      <c r="U175" t="s">
+        <v>46</v>
+      </c>
+      <c r="W175" t="s">
+        <v>33</v>
+      </c>
+      <c r="X175" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y175">
+        <v>5</v>
+      </c>
+      <c r="Z175">
+        <v>0</v>
+      </c>
+      <c r="AA175">
+        <v>0</v>
+      </c>
+      <c r="AB175">
+        <v>0</v>
+      </c>
+      <c r="AC175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:29" ht="14.45">
       <c r="A176">
         <v>2024</v>
       </c>
@@ -11661,60 +11967,77 @@
       <c r="C176" t="s">
         <v>44</v>
       </c>
-      <c r="D176" t="s">
-        <v>31</v>
-      </c>
       <c r="E176" s="1">
-        <v>45563</v>
-      </c>
-      <c r="H176">
-        <v>2</v>
-      </c>
+        <v>45556</v>
+      </c>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
       <c r="I176">
-        <v>28</v>
-      </c>
-      <c r="J176" t="s">
-        <v>44</v>
-      </c>
-      <c r="L176">
-        <v>46931</v>
+        <v>27</v>
       </c>
       <c r="S176" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="T176" t="s">
-        <v>106</v>
-      </c>
-      <c r="U176" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="177" spans="1:22">
+        <v>35</v>
+      </c>
+      <c r="X176" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z176">
+        <v>16</v>
+      </c>
+      <c r="AA176">
+        <v>1</v>
+      </c>
+      <c r="AB176">
+        <v>0</v>
+      </c>
+      <c r="AC176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:29" ht="14.45">
       <c r="A177">
         <v>2024</v>
       </c>
       <c r="B177" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C177" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="E177" s="1">
-        <v>45569</v>
+        <v>45560</v>
       </c>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
       <c r="I177">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="S177" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T177" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="178" spans="1:22">
+      <c r="X177" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z177">
+        <v>0</v>
+      </c>
+      <c r="AA177">
+        <v>0</v>
+      </c>
+      <c r="AB177">
+        <v>1</v>
+      </c>
+      <c r="AC177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:29" ht="14.45">
       <c r="A178">
         <v>2024</v>
       </c>
@@ -11725,34 +12048,76 @@
         <v>44</v>
       </c>
       <c r="D178" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="E178" s="1">
-        <v>45584</v>
+        <v>45563</v>
+      </c>
+      <c r="F178" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G178">
+        <v>28</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I178">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J178" t="s">
         <v>44</v>
       </c>
+      <c r="K178">
+        <v>30312</v>
+      </c>
       <c r="L178">
-        <v>46931</v>
+        <v>72788</v>
+      </c>
+      <c r="M178">
+        <v>3626255</v>
+      </c>
+      <c r="N178">
+        <v>627373.97</v>
+      </c>
+      <c r="O178">
+        <v>2154</v>
+      </c>
+      <c r="P178">
+        <v>2998881.03</v>
+      </c>
+      <c r="Q178">
+        <v>750000</v>
       </c>
       <c r="S178" t="s">
         <v>35</v>
       </c>
       <c r="T178" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="U178" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="179" spans="1:22">
+        <v>54</v>
+      </c>
+      <c r="X178" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y178">
+        <v>4</v>
+      </c>
+      <c r="Z178">
+        <v>1</v>
+      </c>
+      <c r="AA178">
+        <v>14</v>
+      </c>
+      <c r="AB178">
+        <v>0</v>
+      </c>
+      <c r="AC178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:29" ht="14.45">
       <c r="A179">
         <v>2024</v>
       </c>
@@ -11763,21 +12128,36 @@
         <v>44</v>
       </c>
       <c r="E179" s="1">
-        <v>45590</v>
+        <v>45569</v>
       </c>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
       <c r="I179">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="S179" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="T179" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="180" spans="1:22">
+      <c r="X179" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z179">
+        <v>15</v>
+      </c>
+      <c r="AA179">
+        <v>1</v>
+      </c>
+      <c r="AB179">
+        <v>0</v>
+      </c>
+      <c r="AC179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:29" ht="14.45">
       <c r="A180">
         <v>2024</v>
       </c>
@@ -11788,75 +12168,147 @@
         <v>44</v>
       </c>
       <c r="D180" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="E180" s="1">
-        <v>45602</v>
+        <v>45583</v>
+      </c>
+      <c r="F180" s="3">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G180">
+        <v>23</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J180" t="s">
         <v>44</v>
       </c>
+      <c r="K180">
+        <v>64727</v>
+      </c>
       <c r="L180">
-        <v>46931</v>
+        <v>78838</v>
+      </c>
+      <c r="M180">
+        <v>3261898</v>
+      </c>
+      <c r="N180">
+        <v>2164569.0099999998</v>
+      </c>
+      <c r="O180">
+        <v>45043.21</v>
+      </c>
+      <c r="P180">
+        <v>1053435.8400000001</v>
+      </c>
+      <c r="Q180">
+        <v>1053435.8400000001</v>
       </c>
       <c r="S180" t="s">
         <v>35</v>
       </c>
       <c r="T180" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="U180" t="s">
-        <v>40</v>
-      </c>
-      <c r="V180" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="181" spans="1:22">
+        <v>65</v>
+      </c>
+      <c r="X180" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y180">
+        <v>1</v>
+      </c>
+      <c r="Z180">
+        <v>1</v>
+      </c>
+      <c r="AA180">
+        <v>12</v>
+      </c>
+      <c r="AB180">
+        <v>1</v>
+      </c>
+      <c r="AC180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:29" ht="14.45">
       <c r="A181">
         <v>2024</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C181" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D181" t="s">
         <v>31</v>
       </c>
       <c r="E181" s="1">
-        <v>45609</v>
+        <v>45588</v>
+      </c>
+      <c r="F181" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G181">
+        <v>25</v>
       </c>
       <c r="H181">
         <v>2</v>
       </c>
       <c r="I181">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="K181">
+        <v>42982</v>
       </c>
       <c r="L181">
         <v>46931</v>
       </c>
+      <c r="M181">
+        <v>4378907.5</v>
+      </c>
       <c r="S181" t="s">
         <v>35</v>
       </c>
       <c r="T181" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="U181" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="182" spans="1:22">
+        <v>132</v>
+      </c>
+      <c r="W181" t="s">
+        <v>33</v>
+      </c>
+      <c r="X181" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y181">
+        <v>1</v>
+      </c>
+      <c r="Z181">
+        <v>0</v>
+      </c>
+      <c r="AA181">
+        <v>0</v>
+      </c>
+      <c r="AB181">
+        <v>5</v>
+      </c>
+      <c r="AC181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:29" ht="14.45">
       <c r="A182">
         <v>2024</v>
       </c>
@@ -11867,59 +12319,82 @@
         <v>44</v>
       </c>
       <c r="E182" s="1">
-        <v>45616</v>
+        <v>45591</v>
       </c>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
       <c r="I182">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="S182" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="T182" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="183" spans="1:22">
+      <c r="X182" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z182">
+        <v>13</v>
+      </c>
+      <c r="AA182">
+        <v>1</v>
+      </c>
+      <c r="AB182">
+        <v>0</v>
+      </c>
+      <c r="AC182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:29" ht="14.45">
       <c r="A183">
         <v>2024</v>
       </c>
       <c r="B183" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="C183" t="s">
-        <v>44</v>
-      </c>
-      <c r="D183" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E183" s="1">
-        <v>45619</v>
-      </c>
-      <c r="H183">
+        <v>45595</v>
+      </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183" t="s">
+        <v>42</v>
+      </c>
+      <c r="S183" t="s">
+        <v>131</v>
+      </c>
+      <c r="T183" t="s">
+        <v>35</v>
+      </c>
+      <c r="W183" t="s">
+        <v>33</v>
+      </c>
+      <c r="X183" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z183">
+        <v>2</v>
+      </c>
+      <c r="AA183">
+        <v>1</v>
+      </c>
+      <c r="AB183">
         <v>3</v>
       </c>
-      <c r="I183">
-        <v>35</v>
-      </c>
-      <c r="J183" t="s">
-        <v>44</v>
-      </c>
-      <c r="L183">
-        <v>46931</v>
-      </c>
-      <c r="S183" t="s">
-        <v>35</v>
-      </c>
-      <c r="T183" t="s">
-        <v>128</v>
-      </c>
-      <c r="U183" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="184" spans="1:22">
+      <c r="AC183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:29" ht="14.45">
       <c r="A184">
         <v>2024</v>
       </c>
@@ -11929,22 +12404,80 @@
       <c r="C184" t="s">
         <v>44</v>
       </c>
+      <c r="D184" t="s">
+        <v>31</v>
+      </c>
       <c r="E184" s="1">
-        <v>45626</v>
-      </c>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
+        <v>45601</v>
+      </c>
+      <c r="F184" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G184">
+        <v>24</v>
+      </c>
+      <c r="H184">
+        <v>1</v>
+      </c>
       <c r="I184">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="J184" t="s">
+        <v>44</v>
+      </c>
+      <c r="K184">
+        <v>32007</v>
+      </c>
+      <c r="L184">
+        <v>46931</v>
+      </c>
+      <c r="M184">
+        <v>2351620</v>
+      </c>
+      <c r="N184">
+        <v>1819846.84</v>
+      </c>
+      <c r="O184">
+        <v>2281.25</v>
+      </c>
+      <c r="P184">
+        <v>531773.16</v>
+      </c>
+      <c r="Q184">
+        <v>531773.16</v>
       </c>
       <c r="S184" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
       <c r="T184" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="185" spans="1:22">
+        <v>83</v>
+      </c>
+      <c r="U184" t="s">
+        <v>40</v>
+      </c>
+      <c r="V184" t="s">
+        <v>33</v>
+      </c>
+      <c r="X184" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y184">
+        <v>1</v>
+      </c>
+      <c r="Z184">
+        <v>1</v>
+      </c>
+      <c r="AA184">
+        <v>9</v>
+      </c>
+      <c r="AB184">
+        <v>3</v>
+      </c>
+      <c r="AC184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:29" ht="14.45">
       <c r="A185">
         <v>2024</v>
       </c>
@@ -11954,22 +12487,77 @@
       <c r="C185" t="s">
         <v>44</v>
       </c>
+      <c r="D185" t="s">
+        <v>31</v>
+      </c>
       <c r="E185" s="1">
-        <v>45630</v>
-      </c>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
+        <v>45605</v>
+      </c>
+      <c r="F185" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="G185">
+        <v>23</v>
+      </c>
+      <c r="H185">
+        <v>2</v>
+      </c>
       <c r="I185">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="J185" t="s">
+        <v>44</v>
+      </c>
+      <c r="K185">
+        <v>41899</v>
+      </c>
+      <c r="L185">
+        <v>46931</v>
+      </c>
+      <c r="M185">
+        <v>2949695</v>
+      </c>
+      <c r="N185">
+        <v>1925680.46</v>
+      </c>
+      <c r="O185">
+        <v>3139.28</v>
+      </c>
+      <c r="P185">
+        <v>1024014.54</v>
+      </c>
+      <c r="Q185">
+        <v>1024014.54</v>
       </c>
       <c r="S185" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="T185" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="186" spans="1:22">
+        <v>70</v>
+      </c>
+      <c r="U185" t="s">
+        <v>76</v>
+      </c>
+      <c r="X185" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y185">
+        <v>0</v>
+      </c>
+      <c r="Z185">
+        <v>1</v>
+      </c>
+      <c r="AA185">
+        <v>19</v>
+      </c>
+      <c r="AB185">
+        <v>0</v>
+      </c>
+      <c r="AC185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:29" ht="14.45">
       <c r="A186">
         <v>2024</v>
       </c>
@@ -11979,46 +12567,2984 @@
       <c r="C186" t="s">
         <v>44</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" s="1">
+        <v>45616</v>
+      </c>
+      <c r="F186" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+      <c r="I186">
+        <v>34</v>
+      </c>
+      <c r="S186" t="s">
+        <v>72</v>
+      </c>
+      <c r="T186" t="s">
+        <v>35</v>
+      </c>
+      <c r="X186" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z186">
+        <v>10</v>
+      </c>
+      <c r="AA186">
+        <v>1</v>
+      </c>
+      <c r="AB186">
+        <v>0</v>
+      </c>
+      <c r="AC186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:29" ht="14.45">
+      <c r="A187">
+        <v>2024</v>
+      </c>
+      <c r="B187" t="s">
+        <v>43</v>
+      </c>
+      <c r="C187" t="s">
+        <v>44</v>
+      </c>
+      <c r="D187" t="s">
         <v>31</v>
       </c>
-      <c r="E186" s="1">
+      <c r="E187" s="1">
+        <v>45619</v>
+      </c>
+      <c r="F187" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="G187">
+        <v>21</v>
+      </c>
+      <c r="H187">
+        <v>3</v>
+      </c>
+      <c r="I187">
+        <v>35</v>
+      </c>
+      <c r="J187" t="s">
+        <v>44</v>
+      </c>
+      <c r="K187">
+        <v>35491</v>
+      </c>
+      <c r="L187">
+        <v>46931</v>
+      </c>
+      <c r="M187">
+        <v>2419790</v>
+      </c>
+      <c r="N187">
+        <v>1850076.68</v>
+      </c>
+      <c r="O187">
+        <v>1937.21</v>
+      </c>
+      <c r="P187">
+        <v>569713.31999999995</v>
+      </c>
+      <c r="Q187">
+        <v>569713.31999999995</v>
+      </c>
+      <c r="S187" t="s">
+        <v>35</v>
+      </c>
+      <c r="T187" t="s">
+        <v>128</v>
+      </c>
+      <c r="U187" t="s">
+        <v>115</v>
+      </c>
+      <c r="X187" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y187">
+        <v>2</v>
+      </c>
+      <c r="Z187">
+        <v>1</v>
+      </c>
+      <c r="AA187">
+        <v>12</v>
+      </c>
+      <c r="AB187">
+        <v>1</v>
+      </c>
+      <c r="AC187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:29" ht="14.45">
+      <c r="A188">
+        <v>2024</v>
+      </c>
+      <c r="B188" t="s">
+        <v>43</v>
+      </c>
+      <c r="C188" t="s">
+        <v>44</v>
+      </c>
+      <c r="E188" s="1">
+        <v>45622</v>
+      </c>
+      <c r="F188" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
+      <c r="I188">
+        <v>36</v>
+      </c>
+      <c r="S188" t="s">
+        <v>63</v>
+      </c>
+      <c r="T188" t="s">
+        <v>35</v>
+      </c>
+      <c r="X188" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z188">
+        <v>1</v>
+      </c>
+      <c r="AA188">
+        <v>2</v>
+      </c>
+      <c r="AB188">
+        <v>1</v>
+      </c>
+      <c r="AC188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:29" ht="14.45">
+      <c r="A189">
+        <v>2024</v>
+      </c>
+      <c r="B189" t="s">
+        <v>120</v>
+      </c>
+      <c r="C189" t="s">
+        <v>133</v>
+      </c>
+      <c r="E189" s="1">
+        <v>45626</v>
+      </c>
+      <c r="F189" s="3">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>134</v>
+      </c>
+      <c r="S189" t="s">
+        <v>72</v>
+      </c>
+      <c r="T189" t="s">
+        <v>35</v>
+      </c>
+      <c r="W189" t="s">
+        <v>33</v>
+      </c>
+      <c r="X189" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z189">
+        <v>0</v>
+      </c>
+      <c r="AA189">
+        <v>0</v>
+      </c>
+      <c r="AB189">
+        <v>1</v>
+      </c>
+      <c r="AC189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:29" ht="14.45">
+      <c r="A190">
+        <v>2024</v>
+      </c>
+      <c r="B190" t="s">
+        <v>43</v>
+      </c>
+      <c r="C190" t="s">
+        <v>44</v>
+      </c>
+      <c r="E190" s="1">
+        <v>45630</v>
+      </c>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3"/>
+      <c r="I190">
+        <v>37</v>
+      </c>
+      <c r="S190" t="s">
+        <v>67</v>
+      </c>
+      <c r="T190" t="s">
+        <v>35</v>
+      </c>
+      <c r="X190" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z190">
+        <v>4</v>
+      </c>
+      <c r="AA190">
+        <v>1</v>
+      </c>
+      <c r="AB190">
+        <v>0</v>
+      </c>
+      <c r="AC190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:29" ht="14.45">
+      <c r="A191">
+        <v>2024</v>
+      </c>
+      <c r="B191" t="s">
+        <v>43</v>
+      </c>
+      <c r="C191" t="s">
+        <v>44</v>
+      </c>
+      <c r="D191" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" s="1">
         <v>45634</v>
       </c>
-      <c r="H186">
-        <v>1</v>
-      </c>
-      <c r="I186">
+      <c r="F191" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G191">
+        <v>27</v>
+      </c>
+      <c r="H191">
+        <v>1</v>
+      </c>
+      <c r="I191">
         <v>38</v>
       </c>
-      <c r="J186" t="s">
-        <v>44</v>
-      </c>
-      <c r="L186">
+      <c r="J191" t="s">
+        <v>44</v>
+      </c>
+      <c r="K191">
+        <v>41986</v>
+      </c>
+      <c r="L191">
         <v>46931</v>
       </c>
-      <c r="S186" t="s">
-        <v>35</v>
-      </c>
-      <c r="T186" t="s">
+      <c r="M191">
+        <v>3000925</v>
+      </c>
+      <c r="N191">
+        <v>2504825.06</v>
+      </c>
+      <c r="O191">
+        <v>1355.19</v>
+      </c>
+      <c r="P191">
+        <v>496099.94</v>
+      </c>
+      <c r="Q191">
+        <v>496099.94</v>
+      </c>
+      <c r="S191" t="s">
+        <v>35</v>
+      </c>
+      <c r="T191" t="s">
         <v>66</v>
       </c>
-      <c r="U186" t="s">
+      <c r="U191" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="187" spans="1:22">
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
+      <c r="X191" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y191">
+        <v>3</v>
+      </c>
+      <c r="Z191">
+        <v>1</v>
+      </c>
+      <c r="AA191">
+        <v>6</v>
+      </c>
+      <c r="AB191">
+        <v>2</v>
+      </c>
+      <c r="AC191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:29" ht="14.45">
+      <c r="A192">
+        <v>2024</v>
+      </c>
+      <c r="B192" t="s">
+        <v>135</v>
+      </c>
+      <c r="C192" t="s">
+        <v>113</v>
+      </c>
+      <c r="E192" s="1">
+        <v>45637</v>
+      </c>
+      <c r="F192" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192" t="s">
+        <v>134</v>
+      </c>
+      <c r="S192" t="s">
+        <v>136</v>
+      </c>
+      <c r="T192" t="s">
+        <v>35</v>
+      </c>
+      <c r="W192" t="s">
+        <v>33</v>
+      </c>
+      <c r="X192" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z192">
+        <v>0</v>
+      </c>
+      <c r="AA192">
+        <v>0</v>
+      </c>
+      <c r="AB192">
+        <v>3</v>
+      </c>
+      <c r="AC192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:29" ht="15" customHeight="1">
+      <c r="A193">
+        <v>2025</v>
+      </c>
+      <c r="B193" t="s">
+        <v>29</v>
+      </c>
+      <c r="C193" t="s">
+        <v>44</v>
+      </c>
+      <c r="D193" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193" s="1">
+        <v>45668</v>
+      </c>
+      <c r="F193" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G193">
+        <v>26</v>
+      </c>
+      <c r="H193">
+        <v>1</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" t="s">
+        <v>44</v>
+      </c>
+      <c r="K193">
+        <v>9627</v>
+      </c>
+      <c r="L193">
+        <v>46931</v>
+      </c>
+      <c r="M193" s="7">
+        <v>206778</v>
+      </c>
+      <c r="N193">
+        <v>317459.73</v>
+      </c>
+      <c r="O193">
+        <v>935</v>
+      </c>
+      <c r="P193">
+        <v>-110681.73</v>
+      </c>
+      <c r="Q193">
+        <v>-110681.73</v>
+      </c>
+      <c r="R193" t="s">
+        <v>33</v>
+      </c>
+      <c r="S193" t="s">
+        <v>35</v>
+      </c>
+      <c r="T193" t="s">
+        <v>137</v>
+      </c>
+      <c r="U193" t="s">
+        <v>40</v>
+      </c>
+      <c r="X193" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y193">
+        <v>1</v>
+      </c>
+      <c r="Z193">
+        <v>0</v>
+      </c>
+      <c r="AA193">
+        <v>0</v>
+      </c>
+      <c r="AB193">
+        <v>1</v>
+      </c>
+      <c r="AC193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29" ht="15" customHeight="1">
+      <c r="A194">
+        <v>2025</v>
+      </c>
+      <c r="B194" t="s">
+        <v>29</v>
+      </c>
+      <c r="C194" t="s">
+        <v>44</v>
+      </c>
+      <c r="D194" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" s="1">
+        <v>45671</v>
+      </c>
+      <c r="F194" s="3">
+        <v>0.8125</v>
+      </c>
+      <c r="G194">
+        <v>24</v>
+      </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>44</v>
+      </c>
+      <c r="K194">
+        <v>3798</v>
+      </c>
+      <c r="L194">
+        <v>46931</v>
+      </c>
+      <c r="M194">
+        <v>65482</v>
+      </c>
+      <c r="N194">
+        <v>250143.43</v>
+      </c>
+      <c r="O194">
+        <v>1213.8399999999999</v>
+      </c>
+      <c r="P194">
+        <v>-184661.43</v>
+      </c>
+      <c r="Q194">
+        <v>-184661.43</v>
+      </c>
+      <c r="R194" t="s">
+        <v>33</v>
+      </c>
+      <c r="S194" t="s">
+        <v>35</v>
+      </c>
+      <c r="T194" t="s">
+        <v>89</v>
+      </c>
+      <c r="U194" t="s">
+        <v>40</v>
+      </c>
+      <c r="X194" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y194">
+        <v>1</v>
+      </c>
+      <c r="Z194">
+        <v>9</v>
+      </c>
+      <c r="AA194">
+        <v>4</v>
+      </c>
+      <c r="AB194">
+        <v>2</v>
+      </c>
+      <c r="AC194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29" ht="15" customHeight="1">
+      <c r="A195">
+        <v>2025</v>
+      </c>
+      <c r="B195" t="s">
+        <v>29</v>
+      </c>
+      <c r="C195" t="s">
+        <v>44</v>
+      </c>
+      <c r="E195" s="1">
+        <v>45675</v>
+      </c>
+      <c r="F195" s="3">
+        <v>0.6875</v>
+      </c>
+      <c r="I195">
+        <v>3</v>
+      </c>
+      <c r="R195" t="s">
+        <v>33</v>
+      </c>
+      <c r="S195" t="s">
+        <v>118</v>
+      </c>
+      <c r="T195" t="s">
+        <v>35</v>
+      </c>
+      <c r="X195" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z195">
+        <v>10</v>
+      </c>
+      <c r="AA195">
+        <v>4</v>
+      </c>
+      <c r="AB195">
+        <v>2</v>
+      </c>
+      <c r="AC195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29" ht="15" customHeight="1">
+      <c r="A196">
+        <v>2025</v>
+      </c>
+      <c r="B196" t="s">
+        <v>29</v>
+      </c>
+      <c r="C196" t="s">
+        <v>44</v>
+      </c>
+      <c r="D196" t="s">
+        <v>31</v>
+      </c>
+      <c r="E196" s="1">
+        <v>45679</v>
+      </c>
+      <c r="F196" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G196">
+        <v>28</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+      <c r="I196">
+        <v>4</v>
+      </c>
+      <c r="J196" t="s">
+        <v>44</v>
+      </c>
+      <c r="K196">
+        <v>2434</v>
+      </c>
+      <c r="L196">
+        <v>46931</v>
+      </c>
+      <c r="M196">
+        <v>51646</v>
+      </c>
+      <c r="N196">
+        <v>228762.63</v>
+      </c>
+      <c r="O196">
+        <v>2201.85</v>
+      </c>
+      <c r="P196">
+        <v>-177116.83</v>
+      </c>
+      <c r="Q196">
+        <v>-177116.83</v>
+      </c>
+      <c r="R196" t="s">
+        <v>33</v>
+      </c>
+      <c r="S196" t="s">
+        <v>35</v>
+      </c>
+      <c r="T196" t="s">
+        <v>77</v>
+      </c>
+      <c r="U196" t="s">
+        <v>40</v>
+      </c>
+      <c r="X196" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y196">
+        <v>0</v>
+      </c>
+      <c r="Z196">
+        <v>8</v>
+      </c>
+      <c r="AA196">
+        <v>4</v>
+      </c>
+      <c r="AB196">
+        <v>1</v>
+      </c>
+      <c r="AC196">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29" ht="15" customHeight="1">
+      <c r="A197">
+        <v>2025</v>
+      </c>
+      <c r="B197" t="s">
+        <v>29</v>
+      </c>
+      <c r="C197" t="s">
+        <v>44</v>
+      </c>
+      <c r="D197" t="s">
+        <v>31</v>
+      </c>
+      <c r="E197" s="1">
+        <v>45683</v>
+      </c>
+      <c r="F197" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="G197">
+        <v>26</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
+        <v>5</v>
+      </c>
+      <c r="J197" t="s">
+        <v>44</v>
+      </c>
+      <c r="K197">
+        <v>2764</v>
+      </c>
+      <c r="L197">
+        <v>46931</v>
+      </c>
+      <c r="M197">
+        <v>56324</v>
+      </c>
+      <c r="N197">
+        <v>235802.39</v>
+      </c>
+      <c r="O197">
+        <v>2335.23</v>
+      </c>
+      <c r="P197">
+        <v>-179478.39</v>
+      </c>
+      <c r="Q197">
+        <v>-179478.39</v>
+      </c>
+      <c r="R197" t="s">
+        <v>33</v>
+      </c>
+      <c r="S197" t="s">
+        <v>35</v>
+      </c>
+      <c r="T197" t="s">
+        <v>82</v>
+      </c>
+      <c r="U197" t="s">
+        <v>40</v>
+      </c>
+      <c r="X197" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y197">
+        <v>0</v>
+      </c>
+      <c r="Z197">
+        <v>11</v>
+      </c>
+      <c r="AA197">
+        <v>12</v>
+      </c>
+      <c r="AB197">
+        <v>2</v>
+      </c>
+      <c r="AC197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29" ht="15" customHeight="1">
+      <c r="A198">
+        <v>2025</v>
+      </c>
+      <c r="B198" t="s">
+        <v>29</v>
+      </c>
+      <c r="C198" t="s">
+        <v>44</v>
+      </c>
+      <c r="D198" t="s">
+        <v>31</v>
+      </c>
+      <c r="E198" s="1">
+        <v>45686</v>
+      </c>
+      <c r="F198" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G198">
+        <v>26</v>
+      </c>
+      <c r="H198">
+        <v>5</v>
+      </c>
+      <c r="I198">
+        <v>6</v>
+      </c>
+      <c r="J198" t="s">
+        <v>44</v>
+      </c>
+      <c r="K198">
+        <v>7549</v>
+      </c>
+      <c r="L198">
+        <v>46931</v>
+      </c>
+      <c r="M198">
+        <v>276624</v>
+      </c>
+      <c r="N198">
+        <v>561161.44999999995</v>
+      </c>
+      <c r="O198">
+        <v>4090.79</v>
+      </c>
+      <c r="P198">
+        <v>-284537.45</v>
+      </c>
+      <c r="Q198">
+        <v>-142268.73000000001</v>
+      </c>
+      <c r="S198" t="s">
+        <v>35</v>
+      </c>
+      <c r="T198" t="s">
+        <v>39</v>
+      </c>
+      <c r="U198" t="s">
+        <v>40</v>
+      </c>
+      <c r="V198" t="s">
+        <v>33</v>
+      </c>
+      <c r="X198" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y198">
+        <v>2</v>
+      </c>
+      <c r="Z198">
+        <v>6</v>
+      </c>
+      <c r="AA198">
+        <v>8</v>
+      </c>
+      <c r="AB198">
+        <v>2</v>
+      </c>
+      <c r="AC198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29" ht="15" customHeight="1">
+      <c r="A199">
+        <v>2025</v>
+      </c>
+      <c r="B199" t="s">
+        <v>139</v>
+      </c>
+      <c r="C199" t="s">
+        <v>133</v>
+      </c>
+      <c r="D199" t="s">
+        <v>140</v>
+      </c>
+      <c r="E199" s="1">
+        <v>45690</v>
+      </c>
+      <c r="F199" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G199">
+        <v>28</v>
+      </c>
+      <c r="H199">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>134</v>
+      </c>
+      <c r="K199">
+        <v>40000</v>
+      </c>
+      <c r="L199">
+        <v>53635</v>
+      </c>
+      <c r="M199">
+        <v>150000</v>
+      </c>
+      <c r="S199" t="s">
+        <v>35</v>
+      </c>
+      <c r="T199" t="s">
+        <v>55</v>
+      </c>
+      <c r="U199" t="s">
+        <v>40</v>
+      </c>
+      <c r="V199" t="s">
+        <v>33</v>
+      </c>
+      <c r="W199" t="s">
+        <v>33</v>
+      </c>
+      <c r="X199" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y199">
+        <v>0</v>
+      </c>
+      <c r="Z199">
+        <v>0</v>
+      </c>
+      <c r="AA199">
+        <v>0</v>
+      </c>
+      <c r="AB199">
+        <v>1</v>
+      </c>
+      <c r="AC199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29" ht="15" customHeight="1">
+      <c r="A200">
+        <v>2025</v>
+      </c>
+      <c r="B200" t="s">
+        <v>29</v>
+      </c>
+      <c r="C200" t="s">
+        <v>44</v>
+      </c>
+      <c r="E200" s="1">
+        <v>45693</v>
+      </c>
+      <c r="I200">
+        <v>8</v>
+      </c>
+      <c r="S200" t="s">
+        <v>80</v>
+      </c>
+      <c r="T200" t="s">
+        <v>35</v>
+      </c>
+      <c r="X200" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z200">
+        <v>3</v>
+      </c>
+      <c r="AA200">
+        <v>6</v>
+      </c>
+      <c r="AB200">
+        <v>0</v>
+      </c>
+      <c r="AC200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29" ht="15" customHeight="1">
+      <c r="A201">
+        <v>2025</v>
+      </c>
+      <c r="B201" t="s">
+        <v>29</v>
+      </c>
+      <c r="C201" t="s">
+        <v>44</v>
+      </c>
+      <c r="D201" t="s">
+        <v>91</v>
+      </c>
+      <c r="E201" s="1">
+        <v>45697</v>
+      </c>
+      <c r="F201" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G201">
+        <v>31</v>
+      </c>
+      <c r="H201">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>9</v>
+      </c>
+      <c r="J201" t="s">
+        <v>44</v>
+      </c>
+      <c r="K201">
+        <v>4601</v>
+      </c>
+      <c r="L201">
+        <v>21152</v>
+      </c>
+      <c r="M201">
+        <v>457213</v>
+      </c>
+      <c r="N201">
+        <v>355961.65</v>
+      </c>
+      <c r="O201">
+        <v>433.84</v>
+      </c>
+      <c r="P201">
+        <v>101251.36</v>
+      </c>
+      <c r="Q201">
+        <v>600000</v>
+      </c>
+      <c r="R201" t="s">
+        <v>33</v>
+      </c>
+      <c r="S201" t="s">
+        <v>35</v>
+      </c>
+      <c r="T201" t="s">
+        <v>79</v>
+      </c>
+      <c r="U201" t="s">
+        <v>40</v>
+      </c>
+      <c r="X201" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y201">
+        <v>5</v>
+      </c>
+      <c r="Z201">
+        <v>4</v>
+      </c>
+      <c r="AA201">
+        <v>10</v>
+      </c>
+      <c r="AB201">
+        <v>0</v>
+      </c>
+      <c r="AC201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29" ht="15" customHeight="1">
+      <c r="A202">
+        <v>2025</v>
+      </c>
+      <c r="B202" t="s">
+        <v>29</v>
+      </c>
+      <c r="C202" t="s">
+        <v>44</v>
+      </c>
+      <c r="E202" s="1">
+        <v>45689</v>
+      </c>
+      <c r="I202">
+        <v>7</v>
+      </c>
+      <c r="S202" t="s">
+        <v>55</v>
+      </c>
+      <c r="T202" t="s">
+        <v>35</v>
+      </c>
+      <c r="X202" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z202">
+        <v>2</v>
+      </c>
+      <c r="AA202">
+        <v>6</v>
+      </c>
+      <c r="AB202">
+        <v>1</v>
+      </c>
+      <c r="AC202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29" ht="15" customHeight="1">
+      <c r="A203">
+        <v>2025</v>
+      </c>
+      <c r="B203" t="s">
+        <v>29</v>
+      </c>
+      <c r="C203" t="s">
+        <v>44</v>
+      </c>
+      <c r="E203" s="1">
+        <v>45703</v>
+      </c>
+      <c r="I203">
+        <v>10</v>
+      </c>
+      <c r="S203" t="s">
+        <v>81</v>
+      </c>
+      <c r="T203" t="s">
+        <v>35</v>
+      </c>
+      <c r="X203" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z203">
+        <v>10</v>
+      </c>
+      <c r="AA203">
+        <v>6</v>
+      </c>
+      <c r="AB203">
+        <v>1</v>
+      </c>
+      <c r="AC203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29" ht="15" customHeight="1">
+      <c r="A204">
+        <v>2025</v>
+      </c>
+      <c r="B204" t="s">
+        <v>141</v>
+      </c>
+      <c r="C204" t="s">
+        <v>133</v>
+      </c>
+      <c r="E204" s="1">
+        <v>45708</v>
+      </c>
+      <c r="F204" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>38</v>
+      </c>
+      <c r="S204" t="s">
+        <v>142</v>
+      </c>
+      <c r="T204" t="s">
+        <v>35</v>
+      </c>
+      <c r="X204" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+      <c r="AB204">
+        <v>2</v>
+      </c>
+      <c r="AC204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29" ht="15" customHeight="1">
+      <c r="A205">
+        <v>2025</v>
+      </c>
+      <c r="B205" t="s">
+        <v>29</v>
+      </c>
+      <c r="C205" t="s">
+        <v>44</v>
+      </c>
+      <c r="E205" s="1">
+        <v>45710</v>
+      </c>
+      <c r="I205">
+        <v>11</v>
+      </c>
+      <c r="S205" t="s">
+        <v>83</v>
+      </c>
+      <c r="T205" t="s">
+        <v>35</v>
+      </c>
+      <c r="X205" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z205">
+        <v>4</v>
+      </c>
+      <c r="AA205">
+        <v>6</v>
+      </c>
+      <c r="AB205">
+        <v>1</v>
+      </c>
+      <c r="AC205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29" ht="15" customHeight="1">
+      <c r="A206">
+        <v>2025</v>
+      </c>
+      <c r="B206" t="s">
+        <v>141</v>
+      </c>
+      <c r="C206" t="s">
+        <v>133</v>
+      </c>
+      <c r="D206" t="s">
+        <v>31</v>
+      </c>
+      <c r="E206" s="1">
+        <v>45715</v>
+      </c>
+      <c r="F206" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="G206">
+        <v>27</v>
+      </c>
+      <c r="H206">
+        <v>3</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206" t="s">
+        <v>42</v>
+      </c>
+      <c r="K206">
+        <v>30975</v>
+      </c>
+      <c r="L206">
+        <v>46931</v>
+      </c>
+      <c r="M206">
+        <v>900000</v>
+      </c>
+      <c r="S206" t="s">
+        <v>35</v>
+      </c>
+      <c r="T206" t="s">
+        <v>142</v>
+      </c>
+      <c r="U206" t="s">
+        <v>108</v>
+      </c>
+      <c r="W206" t="s">
+        <v>33</v>
+      </c>
+      <c r="X206" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y206">
+        <v>4</v>
+      </c>
+      <c r="Z206">
+        <v>2</v>
+      </c>
+      <c r="AA206">
+        <v>1</v>
+      </c>
+      <c r="AB206">
+        <v>0</v>
+      </c>
+      <c r="AC206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29" ht="15" customHeight="1">
+      <c r="A207">
+        <v>2025</v>
+      </c>
+      <c r="B207" t="s">
+        <v>143</v>
+      </c>
+      <c r="C207" t="s">
+        <v>134</v>
+      </c>
+      <c r="D207" t="s">
+        <v>31</v>
+      </c>
+      <c r="E207" s="1">
+        <v>45738</v>
+      </c>
+      <c r="F207" s="3">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="G207">
+        <v>28</v>
+      </c>
+      <c r="H207">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>1</v>
+      </c>
+      <c r="J207" t="s">
+        <v>134</v>
+      </c>
+      <c r="K207">
+        <v>6931</v>
+      </c>
+      <c r="L207">
+        <v>46931</v>
+      </c>
+      <c r="M207">
+        <v>56324</v>
+      </c>
+      <c r="S207" t="s">
+        <v>35</v>
+      </c>
+      <c r="T207" t="s">
+        <v>144</v>
+      </c>
+      <c r="U207" t="s">
+        <v>46</v>
+      </c>
+      <c r="X207" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y207">
+        <v>3</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+      <c r="AB207">
+        <v>3</v>
+      </c>
+      <c r="AC207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29" ht="15" customHeight="1">
+      <c r="A208">
+        <v>2025</v>
+      </c>
+      <c r="B208" t="s">
+        <v>43</v>
+      </c>
+      <c r="C208" t="s">
+        <v>44</v>
+      </c>
+      <c r="E208" s="1">
+        <v>45746</v>
+      </c>
+      <c r="F208" s="3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I208">
+        <v>1</v>
+      </c>
+      <c r="S208" t="s">
+        <v>63</v>
+      </c>
+      <c r="T208" t="s">
+        <v>35</v>
+      </c>
+      <c r="X208" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+      <c r="AB208">
+        <v>0</v>
+      </c>
+      <c r="AC208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29" ht="15" customHeight="1">
+      <c r="A209">
+        <v>2025</v>
+      </c>
+      <c r="B209" t="s">
+        <v>120</v>
+      </c>
+      <c r="C209" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E209" s="1">
+        <v>45749</v>
+      </c>
+      <c r="I209">
+        <v>1</v>
+      </c>
+      <c r="S209" t="s">
+        <v>146</v>
+      </c>
+      <c r="T209" t="s">
+        <v>35</v>
+      </c>
+      <c r="X209" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+      <c r="AB209">
+        <v>1</v>
+      </c>
+      <c r="AC209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29" ht="15" customHeight="1">
+      <c r="A210">
+        <v>2025</v>
+      </c>
+      <c r="B210" t="s">
+        <v>43</v>
+      </c>
+      <c r="C210" t="s">
+        <v>44</v>
+      </c>
+      <c r="D210" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210" s="1">
+        <v>45752</v>
+      </c>
+      <c r="F210" s="3">
+        <v>0.875</v>
+      </c>
+      <c r="G210">
+        <v>23</v>
+      </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>2</v>
+      </c>
+      <c r="J210" t="s">
+        <v>44</v>
+      </c>
+      <c r="K210">
+        <v>10030</v>
+      </c>
+      <c r="L210">
+        <v>46931</v>
+      </c>
+      <c r="M210">
+        <v>555450</v>
+      </c>
+      <c r="S210" t="s">
+        <v>35</v>
+      </c>
+      <c r="T210" t="s">
+        <v>53</v>
+      </c>
+      <c r="U210" t="s">
+        <v>54</v>
+      </c>
+      <c r="X210" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y210">
+        <v>4</v>
+      </c>
+      <c r="Z210">
+        <v>14</v>
+      </c>
+      <c r="AA210">
+        <v>2</v>
+      </c>
+      <c r="AB210">
+        <v>2</v>
+      </c>
+      <c r="AC210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29" ht="15" customHeight="1">
+      <c r="A211">
+        <v>2025</v>
+      </c>
+      <c r="B211" t="s">
+        <v>120</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D211" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" s="1">
+        <v>45755</v>
+      </c>
+      <c r="F211" s="3">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="H211">
+        <v>2</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211" t="s">
+        <v>44</v>
+      </c>
+      <c r="L211">
+        <v>46931</v>
+      </c>
+      <c r="S211" t="s">
+        <v>35</v>
+      </c>
+      <c r="T211" t="s">
+        <v>147</v>
+      </c>
+      <c r="U211" t="s">
+        <v>148</v>
+      </c>
+      <c r="X211" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z211">
+        <v>3</v>
+      </c>
+      <c r="AA211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29" ht="15" customHeight="1">
+      <c r="A212">
+        <v>2025</v>
+      </c>
+      <c r="B212" t="s">
+        <v>43</v>
+      </c>
+      <c r="C212" t="s">
+        <v>44</v>
+      </c>
+      <c r="E212" s="1">
+        <v>45759</v>
+      </c>
+      <c r="I212">
+        <v>3</v>
+      </c>
+      <c r="S212" t="s">
+        <v>69</v>
+      </c>
+      <c r="T212" t="s">
+        <v>35</v>
+      </c>
+      <c r="X212" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29" ht="15" customHeight="1">
+      <c r="A213">
+        <v>2025</v>
+      </c>
+      <c r="B213" t="s">
+        <v>43</v>
+      </c>
+      <c r="C213" t="s">
+        <v>44</v>
+      </c>
+      <c r="D213" t="s">
+        <v>31</v>
+      </c>
+      <c r="E213" s="1">
+        <v>45763</v>
+      </c>
+      <c r="H213">
+        <v>3</v>
+      </c>
+      <c r="I213">
+        <v>4</v>
+      </c>
+      <c r="J213" t="s">
+        <v>44</v>
+      </c>
+      <c r="L213">
+        <v>46931</v>
+      </c>
+      <c r="S213" t="s">
+        <v>35</v>
+      </c>
+      <c r="T213" t="s">
+        <v>66</v>
+      </c>
+      <c r="U213" t="s">
+        <v>46</v>
+      </c>
+      <c r="X213" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29" ht="15" customHeight="1">
+      <c r="A214">
+        <v>2025</v>
+      </c>
+      <c r="B214" t="s">
+        <v>43</v>
+      </c>
+      <c r="C214" t="s">
+        <v>44</v>
+      </c>
+      <c r="E214" s="1">
+        <v>45766</v>
+      </c>
+      <c r="I214">
+        <v>5</v>
+      </c>
+      <c r="S214" t="s">
+        <v>72</v>
+      </c>
+      <c r="T214" t="s">
+        <v>35</v>
+      </c>
+      <c r="X214" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29" ht="15" customHeight="1">
+      <c r="A215">
+        <v>2025</v>
+      </c>
+      <c r="B215" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E215" s="1">
+        <v>45770</v>
+      </c>
+      <c r="I215">
+        <v>3</v>
+      </c>
+      <c r="S215" t="s">
+        <v>149</v>
+      </c>
+      <c r="T215" t="s">
+        <v>35</v>
+      </c>
+      <c r="X215" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29" ht="15" customHeight="1">
+      <c r="A216">
+        <v>2025</v>
+      </c>
+      <c r="B216" t="s">
+        <v>43</v>
+      </c>
+      <c r="C216" t="s">
+        <v>44</v>
+      </c>
+      <c r="D216" t="s">
+        <v>31</v>
+      </c>
+      <c r="E216" s="1">
+        <v>45773</v>
+      </c>
+      <c r="H216">
+        <v>4</v>
+      </c>
+      <c r="I216">
+        <v>6</v>
+      </c>
+      <c r="J216" t="s">
+        <v>44</v>
+      </c>
+      <c r="L216">
+        <v>46931</v>
+      </c>
+      <c r="S216" t="s">
+        <v>35</v>
+      </c>
+      <c r="T216" t="s">
+        <v>39</v>
+      </c>
+      <c r="U216" t="s">
+        <v>40</v>
+      </c>
+      <c r="V216" t="s">
+        <v>33</v>
+      </c>
+      <c r="X216" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29" ht="15" customHeight="1">
+      <c r="A217">
+        <v>2025</v>
+      </c>
+      <c r="B217" t="s">
+        <v>43</v>
+      </c>
+      <c r="C217" t="s">
+        <v>44</v>
+      </c>
+      <c r="E217" s="1">
+        <v>45780</v>
+      </c>
+      <c r="I217">
+        <v>7</v>
+      </c>
+      <c r="S217" t="s">
+        <v>101</v>
+      </c>
+      <c r="T217" t="s">
+        <v>35</v>
+      </c>
+      <c r="X217" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29" ht="15" customHeight="1">
+      <c r="A218">
+        <v>2025</v>
+      </c>
+      <c r="B218" t="s">
+        <v>120</v>
+      </c>
+      <c r="C218" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E218" s="1">
+        <v>45783</v>
+      </c>
+      <c r="I218">
+        <v>4</v>
+      </c>
+      <c r="S218" t="s">
+        <v>147</v>
+      </c>
+      <c r="T218" t="s">
+        <v>35</v>
+      </c>
+      <c r="X218" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29" ht="15" customHeight="1">
+      <c r="A219">
+        <v>2025</v>
+      </c>
+      <c r="B219" t="s">
+        <v>43</v>
+      </c>
+      <c r="C219" t="s">
+        <v>44</v>
+      </c>
+      <c r="D219" t="s">
+        <v>31</v>
+      </c>
+      <c r="E219" s="1">
+        <v>45787</v>
+      </c>
+      <c r="H219">
+        <v>1</v>
+      </c>
+      <c r="I219">
+        <v>8</v>
+      </c>
+      <c r="J219" t="s">
+        <v>44</v>
+      </c>
+      <c r="L219">
+        <v>46931</v>
+      </c>
+      <c r="S219" t="s">
+        <v>35</v>
+      </c>
+      <c r="T219" t="s">
+        <v>67</v>
+      </c>
+      <c r="U219" t="s">
+        <v>54</v>
+      </c>
+      <c r="X219" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29" ht="15" customHeight="1">
+      <c r="A220">
+        <v>2025</v>
+      </c>
+      <c r="B220" t="s">
+        <v>120</v>
+      </c>
+      <c r="C220" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D220" t="s">
+        <v>31</v>
+      </c>
+      <c r="E220" s="1">
+        <v>45791</v>
+      </c>
+      <c r="H220">
+        <v>2</v>
+      </c>
+      <c r="I220">
+        <v>5</v>
+      </c>
+      <c r="J220" t="s">
+        <v>44</v>
+      </c>
+      <c r="L220">
+        <v>46931</v>
+      </c>
+      <c r="S220" t="s">
+        <v>35</v>
+      </c>
+      <c r="T220" t="s">
+        <v>149</v>
+      </c>
+      <c r="U220" t="s">
+        <v>108</v>
+      </c>
+      <c r="X220" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29" ht="15" customHeight="1">
+      <c r="A221">
+        <v>2025</v>
+      </c>
+      <c r="B221" t="s">
+        <v>43</v>
+      </c>
+      <c r="C221" t="s">
+        <v>44</v>
+      </c>
+      <c r="E221" s="1">
+        <v>45794</v>
+      </c>
+      <c r="I221">
+        <v>9</v>
+      </c>
+      <c r="S221" t="s">
+        <v>55</v>
+      </c>
+      <c r="T221" t="s">
+        <v>35</v>
+      </c>
+      <c r="X221" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29" ht="15" customHeight="1">
+      <c r="A222">
+        <v>2025</v>
+      </c>
+      <c r="B222" t="s">
+        <v>43</v>
+      </c>
+      <c r="C222" t="s">
+        <v>44</v>
+      </c>
+      <c r="D222" t="s">
+        <v>31</v>
+      </c>
+      <c r="E222" s="1">
+        <v>45801</v>
+      </c>
+      <c r="H222">
+        <v>3</v>
+      </c>
+      <c r="I222">
+        <v>10</v>
+      </c>
+      <c r="J222" t="s">
+        <v>44</v>
+      </c>
+      <c r="L222">
+        <v>46931</v>
+      </c>
+      <c r="S222" t="s">
+        <v>35</v>
+      </c>
+      <c r="T222" t="s">
+        <v>48</v>
+      </c>
+      <c r="U222" t="s">
+        <v>58</v>
+      </c>
+      <c r="X222" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29" ht="15" customHeight="1">
+      <c r="A223">
+        <v>2025</v>
+      </c>
+      <c r="B223" t="s">
+        <v>120</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D223" t="s">
+        <v>31</v>
+      </c>
+      <c r="E223" s="1">
+        <v>45804</v>
+      </c>
+      <c r="F223" s="3">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H223">
+        <v>4</v>
+      </c>
+      <c r="I223">
+        <v>6</v>
+      </c>
+      <c r="J223" t="s">
+        <v>44</v>
+      </c>
+      <c r="L223">
+        <v>46931</v>
+      </c>
+      <c r="S223" t="s">
+        <v>35</v>
+      </c>
+      <c r="T223" t="s">
+        <v>146</v>
+      </c>
+      <c r="U223" t="s">
+        <v>104</v>
+      </c>
+      <c r="X223" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29" ht="15" customHeight="1">
+      <c r="A224">
+        <v>2025</v>
+      </c>
+      <c r="B224" t="s">
+        <v>43</v>
+      </c>
+      <c r="C224" t="s">
+        <v>44</v>
+      </c>
+      <c r="E224" s="1">
+        <v>45807</v>
+      </c>
+      <c r="I224">
+        <v>11</v>
+      </c>
+      <c r="S224" t="s">
+        <v>73</v>
+      </c>
+      <c r="T224" t="s">
+        <v>35</v>
+      </c>
+      <c r="X224" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="225" spans="1:24" ht="15" customHeight="1">
+      <c r="A225">
+        <v>2025</v>
+      </c>
+      <c r="B225" t="s">
+        <v>43</v>
+      </c>
+      <c r="C225" t="s">
+        <v>44</v>
+      </c>
+      <c r="D225" t="s">
+        <v>31</v>
+      </c>
+      <c r="E225" s="1">
+        <v>45819</v>
+      </c>
+      <c r="H225">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>12</v>
+      </c>
+      <c r="J225" t="s">
+        <v>44</v>
+      </c>
+      <c r="L225">
+        <v>46931</v>
+      </c>
+      <c r="S225" t="s">
+        <v>35</v>
+      </c>
+      <c r="T225" t="s">
+        <v>150</v>
+      </c>
+      <c r="U225" t="s">
+        <v>46</v>
+      </c>
+      <c r="X225" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="226" spans="1:24" ht="15" customHeight="1">
+      <c r="A226">
+        <v>2025</v>
+      </c>
+      <c r="B226" t="s">
+        <v>151</v>
+      </c>
+      <c r="C226" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E226" s="1">
+        <v>45823</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>44</v>
+      </c>
+      <c r="S226" t="s">
+        <v>152</v>
+      </c>
+      <c r="T226" t="s">
+        <v>35</v>
+      </c>
+      <c r="U226" t="s">
+        <v>153</v>
+      </c>
+      <c r="X226" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="227" spans="1:24" ht="15" customHeight="1">
+      <c r="A227">
+        <v>2025</v>
+      </c>
+      <c r="B227" t="s">
+        <v>151</v>
+      </c>
+      <c r="C227" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E227" s="1">
+        <v>45827</v>
+      </c>
+      <c r="I227">
+        <v>2</v>
+      </c>
+      <c r="J227" t="s">
+        <v>44</v>
+      </c>
+      <c r="S227" t="s">
+        <v>154</v>
+      </c>
+      <c r="T227" t="s">
+        <v>35</v>
+      </c>
+      <c r="U227" t="s">
+        <v>155</v>
+      </c>
+      <c r="X227" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="228" spans="1:24" ht="15" customHeight="1">
+      <c r="A228">
+        <v>2025</v>
+      </c>
+      <c r="B228" t="s">
+        <v>151</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E228" s="1">
+        <v>45831</v>
+      </c>
+      <c r="I228">
+        <v>3</v>
+      </c>
+      <c r="J228" t="s">
+        <v>44</v>
+      </c>
+      <c r="S228" t="s">
+        <v>156</v>
+      </c>
+      <c r="T228" t="s">
+        <v>35</v>
+      </c>
+      <c r="U228" t="s">
+        <v>157</v>
+      </c>
+      <c r="X228" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="229" spans="1:24" ht="15" customHeight="1">
+      <c r="A229">
+        <v>2025</v>
+      </c>
+      <c r="B229" t="s">
+        <v>43</v>
+      </c>
+      <c r="C229" t="s">
+        <v>44</v>
+      </c>
+      <c r="E229" s="1">
+        <v>45850</v>
+      </c>
+      <c r="I229">
+        <v>13</v>
+      </c>
+      <c r="S229" t="s">
+        <v>83</v>
+      </c>
+      <c r="T229" t="s">
+        <v>35</v>
+      </c>
+      <c r="X229" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="230" spans="1:24" ht="15" customHeight="1">
+      <c r="A230">
+        <v>2025</v>
+      </c>
+      <c r="B230" t="s">
+        <v>43</v>
+      </c>
+      <c r="C230" t="s">
+        <v>44</v>
+      </c>
+      <c r="D230" t="s">
+        <v>31</v>
+      </c>
+      <c r="E230" s="1">
+        <v>45854</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>14</v>
+      </c>
+      <c r="J230" t="s">
+        <v>44</v>
+      </c>
+      <c r="L230">
+        <v>46931</v>
+      </c>
+      <c r="S230" t="s">
+        <v>35</v>
+      </c>
+      <c r="T230" t="s">
+        <v>128</v>
+      </c>
+      <c r="U230" t="s">
+        <v>115</v>
+      </c>
+      <c r="X230" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="231" spans="1:24" ht="15" customHeight="1">
+      <c r="A231">
+        <v>2025</v>
+      </c>
+      <c r="B231" t="s">
+        <v>43</v>
+      </c>
+      <c r="C231" t="s">
+        <v>44</v>
+      </c>
+      <c r="E231" s="1">
+        <v>45857</v>
+      </c>
+      <c r="I231">
+        <v>15</v>
+      </c>
+      <c r="S231" t="s">
+        <v>158</v>
+      </c>
+      <c r="T231" t="s">
+        <v>35</v>
+      </c>
+      <c r="X231" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="232" spans="1:24" ht="15" customHeight="1">
+      <c r="A232">
+        <v>2025</v>
+      </c>
+      <c r="B232" t="s">
+        <v>43</v>
+      </c>
+      <c r="C232" t="s">
+        <v>44</v>
+      </c>
+      <c r="E232" s="1">
+        <v>45861</v>
+      </c>
+      <c r="I232">
+        <v>16</v>
+      </c>
+      <c r="S232" t="s">
+        <v>106</v>
+      </c>
+      <c r="T232" t="s">
+        <v>35</v>
+      </c>
+      <c r="X232" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="233" spans="1:24" ht="15" customHeight="1">
+      <c r="A233">
+        <v>2025</v>
+      </c>
+      <c r="B233" t="s">
+        <v>43</v>
+      </c>
+      <c r="C233" t="s">
+        <v>44</v>
+      </c>
+      <c r="D233" t="s">
+        <v>31</v>
+      </c>
+      <c r="E233" s="1">
+        <v>45864</v>
+      </c>
+      <c r="H233">
+        <v>2</v>
+      </c>
+      <c r="I233">
+        <v>17</v>
+      </c>
+      <c r="J233" t="s">
+        <v>44</v>
+      </c>
+      <c r="L233">
+        <v>46931</v>
+      </c>
+      <c r="S233" t="s">
+        <v>35</v>
+      </c>
+      <c r="T233" t="s">
+        <v>45</v>
+      </c>
+      <c r="U233" t="s">
+        <v>46</v>
+      </c>
+      <c r="X233" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="234" spans="1:24" ht="15" customHeight="1">
+      <c r="A234">
+        <v>2025</v>
+      </c>
+      <c r="B234" t="s">
+        <v>43</v>
+      </c>
+      <c r="C234" t="s">
+        <v>44</v>
+      </c>
+      <c r="D234" t="s">
+        <v>31</v>
+      </c>
+      <c r="E234" s="1">
+        <v>45871</v>
+      </c>
+      <c r="H234">
+        <v>1</v>
+      </c>
+      <c r="I234">
+        <v>18</v>
+      </c>
+      <c r="J234" t="s">
+        <v>44</v>
+      </c>
+      <c r="L234">
+        <v>46931</v>
+      </c>
+      <c r="S234" t="s">
+        <v>35</v>
+      </c>
+      <c r="T234" t="s">
+        <v>112</v>
+      </c>
+      <c r="U234" t="s">
+        <v>71</v>
+      </c>
+      <c r="X234" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="235" spans="1:24" ht="15" customHeight="1">
+      <c r="A235">
+        <v>2025</v>
+      </c>
+      <c r="B235" t="s">
+        <v>43</v>
+      </c>
+      <c r="C235" t="s">
+        <v>44</v>
+      </c>
+      <c r="E235" s="1">
+        <v>45878</v>
+      </c>
+      <c r="I235">
+        <v>19</v>
+      </c>
+      <c r="S235" t="s">
+        <v>57</v>
+      </c>
+      <c r="T235" t="s">
+        <v>35</v>
+      </c>
+      <c r="X235" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="236" spans="1:24" ht="15" customHeight="1">
+      <c r="A236">
+        <v>2025</v>
+      </c>
+      <c r="B236" t="s">
+        <v>43</v>
+      </c>
+      <c r="C236" t="s">
+        <v>44</v>
+      </c>
+      <c r="D236" t="s">
+        <v>31</v>
+      </c>
+      <c r="E236" s="1">
+        <v>45885</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236">
+        <v>20</v>
+      </c>
+      <c r="J236" t="s">
+        <v>44</v>
+      </c>
+      <c r="L236">
+        <v>46931</v>
+      </c>
+      <c r="S236" t="s">
+        <v>35</v>
+      </c>
+      <c r="T236" t="s">
+        <v>63</v>
+      </c>
+      <c r="U236" t="s">
+        <v>46</v>
+      </c>
+      <c r="X236" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="237" spans="1:24" ht="15" customHeight="1">
+      <c r="A237">
+        <v>2025</v>
+      </c>
+      <c r="B237" t="s">
+        <v>43</v>
+      </c>
+      <c r="C237" t="s">
+        <v>44</v>
+      </c>
+      <c r="E237" s="1">
+        <v>45892</v>
+      </c>
+      <c r="I237">
+        <v>21</v>
+      </c>
+      <c r="S237" t="s">
+        <v>53</v>
+      </c>
+      <c r="T237" t="s">
+        <v>35</v>
+      </c>
+      <c r="X237" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="238" spans="1:24" ht="15" customHeight="1">
+      <c r="A238">
+        <v>2025</v>
+      </c>
+      <c r="B238" t="s">
+        <v>43</v>
+      </c>
+      <c r="C238" t="s">
+        <v>44</v>
+      </c>
+      <c r="D238" t="s">
+        <v>31</v>
+      </c>
+      <c r="E238" s="1">
+        <v>45899</v>
+      </c>
+      <c r="H238">
+        <v>3</v>
+      </c>
+      <c r="I238">
+        <v>22</v>
+      </c>
+      <c r="J238" t="s">
+        <v>44</v>
+      </c>
+      <c r="L238">
+        <v>46931</v>
+      </c>
+      <c r="S238" t="s">
+        <v>35</v>
+      </c>
+      <c r="T238" t="s">
+        <v>69</v>
+      </c>
+      <c r="U238" t="s">
+        <v>46</v>
+      </c>
+      <c r="X238" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="239" spans="1:24" ht="15" customHeight="1">
+      <c r="A239">
+        <v>2025</v>
+      </c>
+      <c r="B239" t="s">
+        <v>43</v>
+      </c>
+      <c r="C239" t="s">
+        <v>44</v>
+      </c>
+      <c r="E239" s="1">
+        <v>45913</v>
+      </c>
+      <c r="I239">
+        <v>23</v>
+      </c>
+      <c r="S239" t="s">
+        <v>66</v>
+      </c>
+      <c r="T239" t="s">
+        <v>35</v>
+      </c>
+      <c r="X239" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="240" spans="1:24" ht="15" customHeight="1">
+      <c r="A240">
+        <v>2025</v>
+      </c>
+      <c r="B240" t="s">
+        <v>43</v>
+      </c>
+      <c r="C240" t="s">
+        <v>44</v>
+      </c>
+      <c r="D240" t="s">
+        <v>31</v>
+      </c>
+      <c r="E240" s="1">
+        <v>45920</v>
+      </c>
+      <c r="H240">
+        <v>1</v>
+      </c>
+      <c r="I240">
+        <v>24</v>
+      </c>
+      <c r="J240" t="s">
+        <v>44</v>
+      </c>
+      <c r="L240">
+        <v>46931</v>
+      </c>
+      <c r="S240" t="s">
+        <v>35</v>
+      </c>
+      <c r="T240" t="s">
+        <v>72</v>
+      </c>
+      <c r="U240" t="s">
+        <v>71</v>
+      </c>
+      <c r="X240" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="241" spans="1:24" ht="15" customHeight="1">
+      <c r="A241">
+        <v>2025</v>
+      </c>
+      <c r="B241" t="s">
+        <v>43</v>
+      </c>
+      <c r="C241" t="s">
+        <v>44</v>
+      </c>
+      <c r="E241" s="1">
+        <v>45927</v>
+      </c>
+      <c r="I241">
+        <v>25</v>
+      </c>
+      <c r="S241" t="s">
+        <v>39</v>
+      </c>
+      <c r="T241" t="s">
+        <v>35</v>
+      </c>
+      <c r="X241" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="242" spans="1:24" ht="15" customHeight="1">
+      <c r="A242">
+        <v>2025</v>
+      </c>
+      <c r="B242" t="s">
+        <v>43</v>
+      </c>
+      <c r="C242" t="s">
+        <v>44</v>
+      </c>
+      <c r="D242" t="s">
+        <v>31</v>
+      </c>
+      <c r="E242" s="1">
+        <v>45931</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>26</v>
+      </c>
+      <c r="J242" t="s">
+        <v>44</v>
+      </c>
+      <c r="L242">
+        <v>46931</v>
+      </c>
+      <c r="S242" t="s">
+        <v>35</v>
+      </c>
+      <c r="T242" t="s">
+        <v>101</v>
+      </c>
+      <c r="U242" t="s">
+        <v>115</v>
+      </c>
+      <c r="X242" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="243" spans="1:24" ht="15" customHeight="1">
+      <c r="A243">
+        <v>2025</v>
+      </c>
+      <c r="B243" t="s">
+        <v>43</v>
+      </c>
+      <c r="C243" t="s">
+        <v>44</v>
+      </c>
+      <c r="E243" s="1">
+        <v>45946</v>
+      </c>
+      <c r="I243">
+        <v>27</v>
+      </c>
+      <c r="S243" t="s">
+        <v>67</v>
+      </c>
+      <c r="T243" t="s">
+        <v>35</v>
+      </c>
+      <c r="X243" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="244" spans="1:24" ht="15" customHeight="1">
+      <c r="A244">
+        <v>2025</v>
+      </c>
+      <c r="B244" t="s">
+        <v>43</v>
+      </c>
+      <c r="C244" t="s">
+        <v>44</v>
+      </c>
+      <c r="D244" t="s">
+        <v>31</v>
+      </c>
+      <c r="E244" s="1">
+        <v>45955</v>
+      </c>
+      <c r="H244">
+        <v>2</v>
+      </c>
+      <c r="I244">
+        <v>28</v>
+      </c>
+      <c r="J244" t="s">
+        <v>44</v>
+      </c>
+      <c r="L244">
+        <v>46931</v>
+      </c>
+      <c r="S244" t="s">
+        <v>35</v>
+      </c>
+      <c r="T244" t="s">
+        <v>55</v>
+      </c>
+      <c r="U244" t="s">
+        <v>40</v>
+      </c>
+      <c r="V244" t="s">
+        <v>33</v>
+      </c>
+      <c r="X244" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" ht="15" customHeight="1">
+      <c r="A245">
+        <v>2025</v>
+      </c>
+      <c r="B245" t="s">
+        <v>43</v>
+      </c>
+      <c r="C245" t="s">
+        <v>44</v>
+      </c>
+      <c r="E245" s="1">
+        <v>45966</v>
+      </c>
+      <c r="I245">
+        <v>29</v>
+      </c>
+      <c r="S245" t="s">
+        <v>48</v>
+      </c>
+      <c r="T245" t="s">
+        <v>35</v>
+      </c>
+      <c r="X245" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" ht="15" customHeight="1">
+      <c r="A246">
+        <v>2025</v>
+      </c>
+      <c r="B246" t="s">
+        <v>43</v>
+      </c>
+      <c r="C246" t="s">
+        <v>44</v>
+      </c>
+      <c r="D246" t="s">
+        <v>31</v>
+      </c>
+      <c r="E246" s="1">
+        <v>45980</v>
+      </c>
+      <c r="H246">
+        <v>1</v>
+      </c>
+      <c r="I246">
+        <v>30</v>
+      </c>
+      <c r="J246" t="s">
+        <v>44</v>
+      </c>
+      <c r="L246">
+        <v>46931</v>
+      </c>
+      <c r="S246" t="s">
+        <v>35</v>
+      </c>
+      <c r="T246" t="s">
+        <v>73</v>
+      </c>
+      <c r="U246" t="s">
+        <v>46</v>
+      </c>
+      <c r="X246" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="247" spans="1:24" ht="15" customHeight="1">
+      <c r="A247">
+        <v>2025</v>
+      </c>
+      <c r="B247" t="s">
+        <v>43</v>
+      </c>
+      <c r="C247" t="s">
+        <v>44</v>
+      </c>
+      <c r="E247" s="1">
+        <v>45983</v>
+      </c>
+      <c r="I247">
+        <v>31</v>
+      </c>
+      <c r="S247" t="s">
+        <v>150</v>
+      </c>
+      <c r="T247" t="s">
+        <v>35</v>
+      </c>
+      <c r="X247" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="248" spans="1:24" ht="15" customHeight="1">
+      <c r="A248">
+        <v>2025</v>
+      </c>
+      <c r="B248" t="s">
+        <v>43</v>
+      </c>
+      <c r="C248" t="s">
+        <v>44</v>
+      </c>
+      <c r="D248" t="s">
+        <v>31</v>
+      </c>
+      <c r="E248" s="1">
+        <v>45990</v>
+      </c>
+      <c r="H248">
+        <v>2</v>
+      </c>
+      <c r="I248">
+        <v>32</v>
+      </c>
+      <c r="J248" t="s">
+        <v>44</v>
+      </c>
+      <c r="L248">
+        <v>46931</v>
+      </c>
+      <c r="S248" t="s">
+        <v>35</v>
+      </c>
+      <c r="T248" t="s">
+        <v>83</v>
+      </c>
+      <c r="U248" t="s">
+        <v>40</v>
+      </c>
+      <c r="V248" t="s">
+        <v>33</v>
+      </c>
+      <c r="X248" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="249" spans="1:24" ht="15" customHeight="1">
+      <c r="A249">
+        <v>2025</v>
+      </c>
+      <c r="B249" t="s">
+        <v>43</v>
+      </c>
+      <c r="C249" t="s">
+        <v>44</v>
+      </c>
+      <c r="E249" s="1">
+        <v>45994</v>
+      </c>
+      <c r="I249">
+        <v>33</v>
+      </c>
+      <c r="S249" t="s">
+        <v>128</v>
+      </c>
+      <c r="T249" t="s">
+        <v>35</v>
+      </c>
+      <c r="X249" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="250" spans="1:24" ht="15" customHeight="1">
+      <c r="A250">
+        <v>2025</v>
+      </c>
+      <c r="B250" t="s">
+        <v>43</v>
+      </c>
+      <c r="C250" t="s">
+        <v>44</v>
+      </c>
+      <c r="D250" t="s">
+        <v>31</v>
+      </c>
+      <c r="E250" s="1">
+        <v>45997</v>
+      </c>
+      <c r="H250">
+        <v>1</v>
+      </c>
+      <c r="I250">
+        <v>34</v>
+      </c>
+      <c r="J250" t="s">
+        <v>44</v>
+      </c>
+      <c r="L250">
+        <v>46931</v>
+      </c>
+      <c r="S250" t="s">
+        <v>35</v>
+      </c>
+      <c r="T250" t="s">
+        <v>158</v>
+      </c>
+      <c r="U250" t="s">
+        <v>159</v>
+      </c>
+      <c r="X250" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="251" spans="1:24" ht="15" customHeight="1">
+      <c r="A251">
+        <v>2025</v>
+      </c>
+      <c r="B251" t="s">
+        <v>43</v>
+      </c>
+      <c r="C251" t="s">
+        <v>44</v>
+      </c>
+      <c r="D251" t="s">
+        <v>31</v>
+      </c>
+      <c r="E251" s="1">
+        <v>46001</v>
+      </c>
+      <c r="H251">
+        <v>2</v>
+      </c>
+      <c r="I251">
+        <v>35</v>
+      </c>
+      <c r="J251" t="s">
+        <v>44</v>
+      </c>
+      <c r="L251">
+        <v>46931</v>
+      </c>
+      <c r="S251" t="s">
+        <v>35</v>
+      </c>
+      <c r="T251" t="s">
+        <v>106</v>
+      </c>
+      <c r="U251" t="s">
+        <v>54</v>
+      </c>
+      <c r="X251" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="252" spans="1:24" ht="15" customHeight="1">
+      <c r="A252">
+        <v>2025</v>
+      </c>
+      <c r="B252" t="s">
+        <v>43</v>
+      </c>
+      <c r="C252" t="s">
+        <v>44</v>
+      </c>
+      <c r="E252" s="1">
+        <v>46004</v>
+      </c>
+      <c r="I252">
+        <v>36</v>
+      </c>
+      <c r="S252" t="s">
+        <v>45</v>
+      </c>
+      <c r="T252" t="s">
+        <v>35</v>
+      </c>
+      <c r="X252" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="253" spans="1:24" ht="15" customHeight="1">
+      <c r="A253">
+        <v>2025</v>
+      </c>
+      <c r="B253" t="s">
+        <v>43</v>
+      </c>
+      <c r="C253" t="s">
+        <v>44</v>
+      </c>
+      <c r="E253" s="1">
+        <v>46008</v>
+      </c>
+      <c r="I253">
+        <v>37</v>
+      </c>
+      <c r="S253" t="s">
+        <v>112</v>
+      </c>
+      <c r="T253" t="s">
+        <v>35</v>
+      </c>
+      <c r="X253" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="254" spans="1:24" ht="15" customHeight="1">
+      <c r="A254">
+        <v>2025</v>
+      </c>
+      <c r="B254" t="s">
+        <v>43</v>
+      </c>
+      <c r="C254" t="s">
+        <v>44</v>
+      </c>
+      <c r="D254" t="s">
+        <v>31</v>
+      </c>
+      <c r="E254" s="1">
+        <v>46012</v>
+      </c>
+      <c r="H254">
+        <v>3</v>
+      </c>
+      <c r="I254">
+        <v>38</v>
+      </c>
+      <c r="J254" t="s">
+        <v>44</v>
+      </c>
+      <c r="L254">
+        <v>46931</v>
+      </c>
+      <c r="S254" t="s">
+        <v>35</v>
+      </c>
+      <c r="T254" t="s">
+        <v>57</v>
+      </c>
+      <c r="U254" t="s">
+        <v>58</v>
+      </c>
+      <c r="X254" t="s">
+        <v>145</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC187" xr:uid="{301F969D-DFCA-4A79-8310-530A765857C0}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC187">
-      <sortCondition ref="E1:E187"/>
+  <autoFilter ref="A1:AC254" xr:uid="{301F969D-DFCA-4A79-8310-530A765857C0}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC192">
+      <sortCondition ref="E1:E192"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC187">
-    <sortCondition ref="E1:E187"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AC192">
+    <sortCondition ref="E1:E192"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
